--- a/Output Data Structure.xlsx
+++ b/Output Data Structure.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -522,43 +522,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.5555555246913597</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02631578937475267</v>
+        <v>0.05521472375701005</v>
       </c>
       <c r="G2" t="n">
-        <v>38</v>
+        <v>14.81818181818182</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3721804511278196</v>
+        <v>0.2914110429447853</v>
       </c>
       <c r="I2" t="n">
-        <v>15.34887218045113</v>
+        <v>6.043837144450642</v>
       </c>
       <c r="J2" t="n">
-        <v>38</v>
+        <v>14.81818181818182</v>
       </c>
       <c r="K2" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L2" t="n">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="M2" t="n">
-        <v>2.409774436090225</v>
+        <v>2.092024539877301</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>7.984962406015038</v>
+        <v>6.901840490797546</v>
       </c>
     </row>
     <row r="3">
@@ -573,43 +573,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999500000024</v>
+        <v>0.6249999869791669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03484320551421044</v>
+        <v>0.0503144653560645</v>
       </c>
       <c r="G3" t="n">
-        <v>33.76470588235294</v>
+        <v>20.73913043478261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="I3" t="n">
-        <v>13.62295552367288</v>
+        <v>8.366092425485371</v>
       </c>
       <c r="J3" t="n">
-        <v>33.76470588235294</v>
+        <v>20.73913043478261</v>
       </c>
       <c r="K3" t="n">
         <v>168</v>
       </c>
       <c r="L3" t="n">
-        <v>574</v>
+        <v>954</v>
       </c>
       <c r="M3" t="n">
-        <v>2.13588850174216</v>
+        <v>1.69916142557652</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>6.834494773519164</v>
+        <v>5.30293501048218</v>
       </c>
     </row>
     <row r="4">
@@ -624,43 +624,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.4999999843750005</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04134366914381481</v>
+        <v>0.06299212586025173</v>
       </c>
       <c r="G4" t="n">
-        <v>24.1875</v>
+        <v>16.38709677419355</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2868217054263566</v>
+        <v>0.2283464566929134</v>
       </c>
       <c r="I4" t="n">
-        <v>9.789728682170542</v>
+        <v>6.646177292354586</v>
       </c>
       <c r="J4" t="n">
-        <v>24.1875</v>
+        <v>16.38709677419355</v>
       </c>
       <c r="K4" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L4" t="n">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="M4" t="n">
-        <v>2.167958656330749</v>
+        <v>1.921259842519685</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>7.129198966408269</v>
+        <v>6.204724409448819</v>
       </c>
     </row>
     <row r="5">
@@ -675,43 +675,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999629629643</v>
+        <v>0.5555555432098769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05544147832558218</v>
+        <v>0.06838905764682514</v>
       </c>
       <c r="G5" t="n">
-        <v>48.7</v>
+        <v>18.27777777777778</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4722792607802875</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="I5" t="n">
-        <v>19.66891170431212</v>
+        <v>7.455791962174941</v>
       </c>
       <c r="J5" t="n">
-        <v>48.7</v>
+        <v>18.27777777777778</v>
       </c>
       <c r="K5" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L5" t="n">
-        <v>487</v>
+        <v>658</v>
       </c>
       <c r="M5" t="n">
-        <v>2.628336755646817</v>
+        <v>2.252279635258359</v>
       </c>
       <c r="N5" t="n">
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>8.174537987679672</v>
+        <v>6.907294832826747</v>
       </c>
     </row>
     <row r="6">
@@ -726,43 +726,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999473684238</v>
+        <v>0.8235293875432533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03304347820340265</v>
+        <v>0.0441558440984989</v>
       </c>
       <c r="G6" t="n">
-        <v>16.42857142857143</v>
+        <v>12.41935483870968</v>
       </c>
       <c r="H6" t="n">
-        <v>0.32</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="I6" t="n">
-        <v>6.699428571428571</v>
+        <v>5.061248428990365</v>
       </c>
       <c r="J6" t="n">
-        <v>16.42857142857143</v>
+        <v>12.41935483870968</v>
       </c>
       <c r="K6" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L6" t="n">
-        <v>575</v>
+        <v>770</v>
       </c>
       <c r="M6" t="n">
-        <v>2.269565217391305</v>
+        <v>1.945454545454546</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>6.939130434782609</v>
+        <v>6.022077922077922</v>
       </c>
     </row>
     <row r="7">
@@ -777,43 +777,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.5555555246913597</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02631578937475267</v>
+        <v>0.05521472375701005</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>14.81818181818182</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3721804511278196</v>
+        <v>0.2914110429447853</v>
       </c>
       <c r="I7" t="n">
-        <v>15.34887218045113</v>
+        <v>6.043837144450642</v>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>14.81818181818182</v>
       </c>
       <c r="K7" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L7" t="n">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="M7" t="n">
-        <v>2.409774436090225</v>
+        <v>2.092024539877301</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>7.984962406015038</v>
+        <v>6.901840490797546</v>
       </c>
     </row>
     <row r="8">
@@ -828,43 +828,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999500000024</v>
+        <v>0.6170212634676328</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03484320551421044</v>
+        <v>0.04926624732781316</v>
       </c>
       <c r="G8" t="n">
-        <v>33.76470588235294</v>
+        <v>19.46938775510204</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="I8" t="n">
-        <v>13.62295552367288</v>
+        <v>7.863226800154024</v>
       </c>
       <c r="J8" t="n">
-        <v>33.76470588235294</v>
+        <v>19.46938775510204</v>
       </c>
       <c r="K8" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="L8" t="n">
-        <v>574</v>
+        <v>954</v>
       </c>
       <c r="M8" t="n">
-        <v>2.13588850174216</v>
+        <v>1.732704402515723</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>6.834494773519164</v>
+        <v>5.387840670859539</v>
       </c>
     </row>
     <row r="9">
@@ -879,43 +879,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.5151514995408637</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04134366914381481</v>
+        <v>0.06496062979338459</v>
       </c>
       <c r="G9" t="n">
-        <v>24.1875</v>
+        <v>16.38709677419355</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2868217054263566</v>
+        <v>0.2224409448818898</v>
       </c>
       <c r="I9" t="n">
-        <v>9.789728682170542</v>
+        <v>6.643815087630175</v>
       </c>
       <c r="J9" t="n">
-        <v>24.1875</v>
+        <v>16.38709677419355</v>
       </c>
       <c r="K9" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L9" t="n">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="M9" t="n">
-        <v>2.167958656330749</v>
+        <v>1.885826771653543</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>7.129198966408269</v>
+        <v>6.127952755905512</v>
       </c>
     </row>
     <row r="10">
@@ -930,43 +930,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999629629643</v>
+        <v>0.5102040712203251</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05544147832558218</v>
+        <v>0.07515337411786292</v>
       </c>
       <c r="G10" t="n">
-        <v>48.7</v>
+        <v>18.11111111111111</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4722792607802875</v>
+        <v>0.3558282208588957</v>
       </c>
       <c r="I10" t="n">
-        <v>19.66891170431212</v>
+        <v>7.386775732788003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.7</v>
+        <v>18.11111111111111</v>
       </c>
       <c r="K10" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L10" t="n">
-        <v>487</v>
+        <v>652</v>
       </c>
       <c r="M10" t="n">
-        <v>2.628336755646817</v>
+        <v>2.243865030674847</v>
       </c>
       <c r="N10" t="n">
         <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>8.174537987679672</v>
+        <v>6.932515337423313</v>
       </c>
     </row>
     <row r="11">
@@ -981,43 +981,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999859154932</v>
+        <v>0.6190476131519275</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05525291824493936</v>
+        <v>0.05952380949006587</v>
       </c>
       <c r="G11" t="n">
-        <v>24.24528301886792</v>
+        <v>15.47368421052632</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4630350194552529</v>
+        <v>0.3356009070294785</v>
       </c>
       <c r="I11" t="n">
-        <v>9.88332721532927</v>
+        <v>6.323714047022317</v>
       </c>
       <c r="J11" t="n">
-        <v>24.24528301886792</v>
+        <v>15.47368421052632</v>
       </c>
       <c r="K11" t="n">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="L11" t="n">
-        <v>1285</v>
+        <v>1764</v>
       </c>
       <c r="M11" t="n">
-        <v>2.571206225680934</v>
+        <v>2.155895691609977</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>7.84124513618677</v>
+        <v>6.571428571428571</v>
       </c>
     </row>
     <row r="12">
@@ -1032,43 +1032,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999545454565</v>
+        <v>0.6279069621416986</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05152224812289872</v>
+        <v>0.07263513501244065</v>
       </c>
       <c r="G12" t="n">
-        <v>42.7</v>
+        <v>16.91428571428571</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4473067915690866</v>
+        <v>0.3361486486486486</v>
       </c>
       <c r="I12" t="n">
-        <v>17.25892271662763</v>
+        <v>6.900173745173745</v>
       </c>
       <c r="J12" t="n">
-        <v>42.7</v>
+        <v>16.91428571428571</v>
       </c>
       <c r="K12" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L12" t="n">
-        <v>427</v>
+        <v>592</v>
       </c>
       <c r="M12" t="n">
-        <v>2.627634660421545</v>
+        <v>2.219594594594595</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>8.135831381733022</v>
+        <v>6.826013513513513</v>
       </c>
     </row>
     <row r="13">
@@ -1083,43 +1083,43 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999666666678</v>
+        <v>0.8378378151935726</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05494505484442298</v>
+        <v>0.05285714278163265</v>
       </c>
       <c r="G13" t="n">
-        <v>60.66666666666666</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5018315018315018</v>
+        <v>0.3842857142857143</v>
       </c>
       <c r="I13" t="n">
-        <v>24.46739926739927</v>
+        <v>7.721281853281853</v>
       </c>
       <c r="J13" t="n">
-        <v>60.66666666666666</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="K13" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L13" t="n">
-        <v>546</v>
+        <v>700</v>
       </c>
       <c r="M13" t="n">
-        <v>2.752747252747253</v>
+        <v>2.352857142857143</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>8.553113553113553</v>
+        <v>7.328571428571428</v>
       </c>
     </row>
     <row r="14">
@@ -1134,43 +1134,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999999958333335</v>
+        <v>0.7142856938775517</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06217616564203066</v>
+        <v>0.06809338508153039</v>
       </c>
       <c r="G14" t="n">
-        <v>32.16666666666666</v>
+        <v>15.57575757575758</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4326424870466321</v>
+        <v>0.3365758754863813</v>
       </c>
       <c r="I14" t="n">
-        <v>13.03972366148532</v>
+        <v>6.364933380497583</v>
       </c>
       <c r="J14" t="n">
-        <v>32.16666666666666</v>
+        <v>15.57575757575758</v>
       </c>
       <c r="K14" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L14" t="n">
-        <v>386</v>
+        <v>514</v>
       </c>
       <c r="M14" t="n">
-        <v>2.642487046632124</v>
+        <v>2.291828793774319</v>
       </c>
       <c r="N14" t="n">
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>8.691709844559586</v>
+        <v>7.575875486381323</v>
       </c>
     </row>
     <row r="15">
@@ -1185,43 +1185,43 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.5151514995408637</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04010025052606454</v>
+        <v>0.06370656358357807</v>
       </c>
       <c r="G15" t="n">
-        <v>39.9</v>
+        <v>16.70967741935484</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4511278195488722</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="I15" t="n">
-        <v>16.14045112781955</v>
+        <v>6.824411508282477</v>
       </c>
       <c r="J15" t="n">
-        <v>39.9</v>
+        <v>16.70967741935484</v>
       </c>
       <c r="K15" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L15" t="n">
-        <v>399</v>
+        <v>518</v>
       </c>
       <c r="M15" t="n">
-        <v>2.598997493734336</v>
+        <v>2.252895752895753</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>8.263157894736842</v>
+        <v>7.162162162162162</v>
       </c>
     </row>
     <row r="16">
@@ -1236,43 +1236,43 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999999833333336</v>
+        <v>0.5959595899398021</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06528835683864162</v>
+        <v>0.08029197073780051</v>
       </c>
       <c r="G16" t="n">
-        <v>43.76190476190476</v>
+        <v>15.60759493670886</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4624591947769314</v>
+        <v>0.3422546634225466</v>
       </c>
       <c r="I16" t="n">
-        <v>17.68974558267268</v>
+        <v>6.379939840052563</v>
       </c>
       <c r="J16" t="n">
-        <v>43.76190476190476</v>
+        <v>15.60759493670886</v>
       </c>
       <c r="K16" t="n">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L16" t="n">
-        <v>919</v>
+        <v>1233</v>
       </c>
       <c r="M16" t="n">
-        <v>2.651795429815016</v>
+        <v>2.244120032441201</v>
       </c>
       <c r="N16" t="n">
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>8.225244831338411</v>
+        <v>6.97404703974047</v>
       </c>
     </row>
     <row r="17">
@@ -1287,43 +1287,43 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999705882362</v>
+        <v>0.4137930963139121</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04735376037973014</v>
+        <v>0.06060606054273139</v>
       </c>
       <c r="G17" t="n">
-        <v>16.31818181818182</v>
+        <v>11.9625</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3704735376044568</v>
+        <v>0.2685475444096134</v>
       </c>
       <c r="I17" t="n">
-        <v>6.67546214231451</v>
+        <v>4.892419017763846</v>
       </c>
       <c r="J17" t="n">
-        <v>16.31818181818182</v>
+        <v>11.9625</v>
       </c>
       <c r="K17" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="L17" t="n">
-        <v>718</v>
+        <v>957</v>
       </c>
       <c r="M17" t="n">
-        <v>2.385793871866295</v>
+        <v>2.028213166144201</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>7.469359331476323</v>
+        <v>6.316614420062696</v>
       </c>
     </row>
     <row r="18">
@@ -1338,43 +1338,43 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999999871794873</v>
+        <v>0.731092430831156</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07084468658415559</v>
+        <v>0.07727272722255017</v>
       </c>
       <c r="G18" t="n">
-        <v>21.17307692307692</v>
+        <v>21.0958904109589</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4577656675749319</v>
+        <v>0.3344155844155844</v>
       </c>
       <c r="I18" t="n">
-        <v>8.652337036260743</v>
+        <v>8.572122398149796</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17307692307692</v>
+        <v>21.0958904109589</v>
       </c>
       <c r="K18" t="n">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="L18" t="n">
-        <v>1101</v>
+        <v>1540</v>
       </c>
       <c r="M18" t="n">
-        <v>2.633969118982743</v>
+        <v>2.193506493506494</v>
       </c>
       <c r="N18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O18" t="n">
-        <v>8.059945504087194</v>
+        <v>6.624025974025974</v>
       </c>
     </row>
     <row r="19">
@@ -1389,43 +1389,43 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.99999990000001</v>
+        <v>0.5238094988662143</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03649635023176515</v>
+        <v>0.058171744991214</v>
       </c>
       <c r="G19" t="n">
-        <v>30.44444444444444</v>
+        <v>12.89285714285714</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3905109489051095</v>
+        <v>0.2714681440443213</v>
       </c>
       <c r="I19" t="n">
-        <v>12.33398215733982</v>
+        <v>5.265730114760586</v>
       </c>
       <c r="J19" t="n">
-        <v>30.44444444444444</v>
+        <v>12.89285714285714</v>
       </c>
       <c r="K19" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L19" t="n">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="M19" t="n">
-        <v>2.583941605839416</v>
+        <v>2.163434903047091</v>
       </c>
       <c r="N19" t="n">
         <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>8.434306569343066</v>
+        <v>7.058171745152355</v>
       </c>
     </row>
     <row r="20">
@@ -1440,43 +1440,43 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999999800000005</v>
+        <v>0.744186037858302</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06896551714625446</v>
+        <v>0.08464566920802592</v>
       </c>
       <c r="G20" t="n">
-        <v>16.86046511627907</v>
+        <v>16.12698412698413</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4055172413793103</v>
+        <v>0.2854330708661417</v>
       </c>
       <c r="I20" t="n">
-        <v>6.906392943063352</v>
+        <v>6.564966879140107</v>
       </c>
       <c r="J20" t="n">
-        <v>16.86046511627907</v>
+        <v>16.12698412698413</v>
       </c>
       <c r="K20" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L20" t="n">
-        <v>725</v>
+        <v>1016</v>
       </c>
       <c r="M20" t="n">
-        <v>2.732413793103448</v>
+        <v>2.252952755905512</v>
       </c>
       <c r="N20" t="n">
         <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>8.34344827586207</v>
+        <v>6.859251968503937</v>
       </c>
     </row>
     <row r="21">
@@ -1491,43 +1491,43 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999999750000007</v>
+        <v>0.6981131943752228</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08048289722236841</v>
+        <v>0.08204334352624869</v>
       </c>
       <c r="G21" t="n">
-        <v>29.23529411764706</v>
+        <v>13.18367346938776</v>
       </c>
       <c r="H21" t="n">
-        <v>0.386317907444668</v>
+        <v>0.3111455108359133</v>
       </c>
       <c r="I21" t="n">
-        <v>11.84864481003669</v>
+        <v>5.397927592089468</v>
       </c>
       <c r="J21" t="n">
-        <v>29.23529411764706</v>
+        <v>13.18367346938776</v>
       </c>
       <c r="K21" t="n">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L21" t="n">
-        <v>497</v>
+        <v>646</v>
       </c>
       <c r="M21" t="n">
-        <v>2.575452716297787</v>
+        <v>2.260061919504644</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>8.082494969818914</v>
+        <v>7.058823529411764</v>
       </c>
     </row>
     <row r="22">
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.8399999664000013</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0531561460028035</v>
+        <v>0.06297229203281539</v>
       </c>
       <c r="G22" t="n">
-        <v>75.25</v>
+        <v>13.23333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3621262458471761</v>
+        <v>0.2695214105793451</v>
       </c>
       <c r="I22" t="n">
-        <v>30.24485049833887</v>
+        <v>5.401141897565072</v>
       </c>
       <c r="J22" t="n">
-        <v>75.25</v>
+        <v>13.23333333333333</v>
       </c>
       <c r="K22" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L22" t="n">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="M22" t="n">
-        <v>2.365448504983389</v>
+        <v>2.042821158690176</v>
       </c>
       <c r="N22" t="n">
         <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>7.495016611295681</v>
+        <v>6.496221662468514</v>
       </c>
     </row>
     <row r="23">
@@ -1593,43 +1593,43 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999230769291</v>
+        <v>0.7894736426592819</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04100946359303009</v>
+        <v>0.04909560710828009</v>
       </c>
       <c r="G23" t="n">
-        <v>52.83333333333334</v>
+        <v>12.9</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4258675078864353</v>
+        <v>0.3462532299741602</v>
       </c>
       <c r="I23" t="n">
-        <v>21.30368033648791</v>
+        <v>5.298501291989664</v>
       </c>
       <c r="J23" t="n">
-        <v>52.83333333333334</v>
+        <v>12.9</v>
       </c>
       <c r="K23" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L23" t="n">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="M23" t="n">
-        <v>2.495268138801262</v>
+        <v>2.237726098191215</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>7.779179810725552</v>
+        <v>6.974160206718346</v>
       </c>
     </row>
     <row r="24">
@@ -1647,40 +1647,40 @@
         <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999999333333378</v>
+        <v>0.7647058373702448</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04901960768294246</v>
+        <v>0.04336734682814453</v>
       </c>
       <c r="G24" t="n">
-        <v>43.71428571428572</v>
+        <v>12.64516129032258</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3594771241830065</v>
+        <v>0.2704081632653061</v>
       </c>
       <c r="I24" t="n">
-        <v>17.62950513538749</v>
+        <v>5.166227781435155</v>
       </c>
       <c r="J24" t="n">
-        <v>43.71428571428572</v>
+        <v>12.64516129032258</v>
       </c>
       <c r="K24" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L24" t="n">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="M24" t="n">
-        <v>2.333333333333333</v>
+        <v>2.038265306122449</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>7.640522875816994</v>
+        <v>6.604591836734694</v>
       </c>
     </row>
     <row r="25">
@@ -1695,43 +1695,43 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999500000024</v>
+        <v>0.8260869206049165</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06688963188331226</v>
+        <v>0.06182795682304313</v>
       </c>
       <c r="G25" t="n">
-        <v>42.71428571428572</v>
+        <v>11.625</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4080267558528428</v>
+        <v>0.3252688172043011</v>
       </c>
       <c r="I25" t="n">
-        <v>17.24892498805542</v>
+        <v>4.780107526881721</v>
       </c>
       <c r="J25" t="n">
-        <v>42.71428571428572</v>
+        <v>11.625</v>
       </c>
       <c r="K25" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L25" t="n">
-        <v>299</v>
+        <v>372</v>
       </c>
       <c r="M25" t="n">
-        <v>2.518394648829431</v>
+        <v>2.193548387096774</v>
       </c>
       <c r="N25" t="n">
         <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>8.030100334448161</v>
+        <v>7.077956989247312</v>
       </c>
     </row>
     <row r="26">
@@ -1746,43 +1746,43 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999523809546</v>
+        <v>0.8124999746093758</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06730769209196252</v>
+        <v>0.08311688290099511</v>
       </c>
       <c r="G26" t="n">
-        <v>78</v>
+        <v>13.27586206896552</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.3038961038961039</v>
       </c>
       <c r="I26" t="n">
-        <v>31.34615384615385</v>
+        <v>5.431903269144649</v>
       </c>
       <c r="J26" t="n">
-        <v>78</v>
+        <v>13.27586206896552</v>
       </c>
       <c r="K26" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L26" t="n">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="M26" t="n">
-        <v>2.442307692307693</v>
+        <v>2.192207792207792</v>
       </c>
       <c r="N26" t="n">
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>7.842948717948718</v>
+        <v>7.062337662337662</v>
       </c>
     </row>
     <row r="27">
@@ -1797,43 +1797,43 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9999999444444475</v>
+        <v>0.4117646937716267</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05696202513619612</v>
+        <v>0.08395061707666514</v>
       </c>
       <c r="G27" t="n">
-        <v>52.66666666666666</v>
+        <v>12.27272727272727</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3987341772151899</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22616033755274</v>
+        <v>5.037485970819304</v>
       </c>
       <c r="J27" t="n">
-        <v>52.66666666666666</v>
+        <v>12.27272727272727</v>
       </c>
       <c r="K27" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L27" t="n">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="M27" t="n">
-        <v>2.560126582278481</v>
+        <v>2.22962962962963</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>7.914556962025316</v>
+        <v>7.002469135802469</v>
       </c>
     </row>
     <row r="28">
@@ -1848,43 +1848,43 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9999999523809546</v>
+        <v>0.6666666444444451</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03664921459572563</v>
+        <v>0.03575685335428266</v>
       </c>
       <c r="G28" t="n">
-        <v>18.48387096774194</v>
+        <v>16.78</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3280977312390925</v>
+        <v>0.2264600715137068</v>
       </c>
       <c r="I28" t="n">
-        <v>7.524787479592412</v>
+        <v>6.802584028605484</v>
       </c>
       <c r="J28" t="n">
-        <v>18.48387096774194</v>
+        <v>16.78</v>
       </c>
       <c r="K28" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L28" t="n">
-        <v>573</v>
+        <v>839</v>
       </c>
       <c r="M28" t="n">
-        <v>2.293193717277487</v>
+        <v>1.915375446960667</v>
       </c>
       <c r="N28" t="n">
         <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>7.556719022687609</v>
+        <v>6.214541120381407</v>
       </c>
     </row>
     <row r="29">
@@ -1899,43 +1899,43 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9999999642857155</v>
+        <v>0.593220328928469</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04409448811953624</v>
+        <v>0.06908665097296646</v>
       </c>
       <c r="G29" t="n">
-        <v>26.45833333333333</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3338582677165354</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="I29" t="n">
-        <v>10.71687664041995</v>
+        <v>8.231693989071038</v>
       </c>
       <c r="J29" t="n">
-        <v>26.45833333333333</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="K29" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L29" t="n">
-        <v>635</v>
+        <v>854</v>
       </c>
       <c r="M29" t="n">
-        <v>2.259842519685039</v>
+        <v>1.936768149882904</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>7.274015748031496</v>
+        <v>6.181498829039812</v>
       </c>
     </row>
     <row r="30">
@@ -1950,43 +1950,43 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9999999615384629</v>
+        <v>0.7586206765755056</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04255319141971654</v>
+        <v>0.06318082781788581</v>
       </c>
       <c r="G30" t="n">
-        <v>21.82142857142857</v>
+        <v>16.69090909090909</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3682487725040917</v>
+        <v>0.2342047930283224</v>
       </c>
       <c r="I30" t="n">
-        <v>8.875870937573067</v>
+        <v>6.770045553574966</v>
       </c>
       <c r="J30" t="n">
-        <v>21.82142857142857</v>
+        <v>16.69090909090909</v>
       </c>
       <c r="K30" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L30" t="n">
-        <v>611</v>
+        <v>918</v>
       </c>
       <c r="M30" t="n">
-        <v>2.430441898527005</v>
+        <v>1.930283224400871</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>7.97708674304419</v>
+        <v>6.291938997821351</v>
       </c>
     </row>
     <row r="31">
@@ -2001,43 +2001,43 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9999999696969707</v>
+        <v>0.5999999900000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05148205920205607</v>
+        <v>0.06217616573867755</v>
       </c>
       <c r="G31" t="n">
-        <v>22.10344827586207</v>
+        <v>17.87037037037037</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3026521060842434</v>
+        <v>0.2062176165803109</v>
       </c>
       <c r="I31" t="n">
-        <v>8.962440152778525</v>
+        <v>7.230635194780273</v>
       </c>
       <c r="J31" t="n">
-        <v>22.10344827586207</v>
+        <v>17.87037037037037</v>
       </c>
       <c r="K31" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L31" t="n">
-        <v>641</v>
+        <v>965</v>
       </c>
       <c r="M31" t="n">
-        <v>2.296411856474259</v>
+        <v>1.886010362694301</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>7.480499219968799</v>
+        <v>6.07461139896373</v>
       </c>
     </row>
     <row r="32">
@@ -2052,43 +2052,43 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9999999600000016</v>
+        <v>0.7021276446355821</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04716981123175507</v>
+        <v>0.0662905499770232</v>
       </c>
       <c r="G32" t="n">
-        <v>29.44444444444444</v>
+        <v>13.90196078431373</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3849056603773585</v>
+        <v>0.2976022566995769</v>
       </c>
       <c r="I32" t="n">
-        <v>11.93174004192872</v>
+        <v>5.679825216405321</v>
       </c>
       <c r="J32" t="n">
-        <v>29.44444444444444</v>
+        <v>13.90196078431373</v>
       </c>
       <c r="K32" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L32" t="n">
-        <v>530</v>
+        <v>709</v>
       </c>
       <c r="M32" t="n">
-        <v>2.50566037735849</v>
+        <v>2.148095909732017</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>7.745283018867925</v>
+        <v>6.575458392101551</v>
       </c>
     </row>
     <row r="33">
@@ -2103,43 +2103,43 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9999999841269844</v>
+        <v>0.6470588171856979</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0881118879886547</v>
+        <v>0.1047227925002846</v>
       </c>
       <c r="G33" t="n">
-        <v>29.79166666666667</v>
+        <v>20.72340425531915</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3748251748251748</v>
+        <v>0.2731006160164271</v>
       </c>
       <c r="I33" t="n">
-        <v>12.06659673659674</v>
+        <v>8.398601948534232</v>
       </c>
       <c r="J33" t="n">
-        <v>29.79166666666667</v>
+        <v>20.72340425531915</v>
       </c>
       <c r="K33" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L33" t="n">
-        <v>715</v>
+        <v>974</v>
       </c>
       <c r="M33" t="n">
-        <v>2.48951048951049</v>
+        <v>2.095482546201232</v>
       </c>
       <c r="N33" t="n">
         <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>7.837762237762238</v>
+        <v>6.552361396303901</v>
       </c>
     </row>
     <row r="34">
@@ -2154,43 +2154,43 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9999999756097567</v>
+        <v>0.7096774079084289</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04734411079983359</v>
+        <v>0.04802478694963223</v>
       </c>
       <c r="G34" t="n">
-        <v>22.78947368421053</v>
+        <v>18.1830985915493</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3210161662817552</v>
+        <v>0.2075910147172734</v>
       </c>
       <c r="I34" t="n">
-        <v>9.244195940196914</v>
+        <v>7.356275842506628</v>
       </c>
       <c r="J34" t="n">
-        <v>22.78947368421053</v>
+        <v>18.1830985915493</v>
       </c>
       <c r="K34" t="n">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="L34" t="n">
-        <v>866</v>
+        <v>1291</v>
       </c>
       <c r="M34" t="n">
-        <v>2.386836027713626</v>
+        <v>1.936483346243222</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>7.762124711316397</v>
+        <v>6.249419054996127</v>
       </c>
     </row>
     <row r="35">
@@ -2205,43 +2205,43 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
-        <v>0.999999958333335</v>
+        <v>0.5499999862500004</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05357142845184949</v>
+        <v>0.06611570237005669</v>
       </c>
       <c r="G35" t="n">
-        <v>26.35294117647059</v>
+        <v>14.75609756097561</v>
       </c>
       <c r="H35" t="n">
-        <v>0.328125</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="I35" t="n">
-        <v>10.67242647058823</v>
+        <v>6.004257206208425</v>
       </c>
       <c r="J35" t="n">
-        <v>26.35294117647059</v>
+        <v>14.75609756097561</v>
       </c>
       <c r="K35" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L35" t="n">
-        <v>448</v>
+        <v>605</v>
       </c>
       <c r="M35" t="n">
-        <v>2.332589285714286</v>
+        <v>2.023140495867769</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>7.457589285714286</v>
+        <v>6.36694214876033</v>
       </c>
     </row>
     <row r="36">
@@ -2256,43 +2256,43 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9999999807692311</v>
+        <v>0.4255319103666818</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04088050311251532</v>
+        <v>0.05659241417423695</v>
       </c>
       <c r="G36" t="n">
-        <v>22.31578947368421</v>
+        <v>11.4551724137931</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3482704402515723</v>
+        <v>0.2661047561709813</v>
       </c>
       <c r="I36" t="n">
-        <v>9.065623965574312</v>
+        <v>4.688510867985634</v>
       </c>
       <c r="J36" t="n">
-        <v>22.31578947368421</v>
+        <v>11.4551724137931</v>
       </c>
       <c r="K36" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L36" t="n">
-        <v>1272</v>
+        <v>1661</v>
       </c>
       <c r="M36" t="n">
-        <v>2.327044025157233</v>
+        <v>2.025888019265503</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>7.348270440251572</v>
+        <v>6.431667670078266</v>
       </c>
     </row>
     <row r="37">
@@ -2307,43 +2307,43 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9999999677419364</v>
+        <v>0.2777777739197532</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03884711774580562</v>
+        <v>0.06569343059699503</v>
       </c>
       <c r="G37" t="n">
-        <v>15.34615384615385</v>
+        <v>13.04761904761905</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.2545620437956204</v>
       </c>
       <c r="I37" t="n">
-        <v>6.278812415654521</v>
+        <v>5.320872436565868</v>
       </c>
       <c r="J37" t="n">
-        <v>15.34615384615385</v>
+        <v>13.04761904761905</v>
       </c>
       <c r="K37" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L37" t="n">
-        <v>798</v>
+        <v>1096</v>
       </c>
       <c r="M37" t="n">
-        <v>2.300751879699248</v>
+        <v>1.95985401459854</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>7.017543859649122</v>
+        <v>5.920620437956204</v>
       </c>
     </row>
     <row r="38">
@@ -2358,43 +2358,43 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9999999687500011</v>
+        <v>0.7419354719042666</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04199475060105676</v>
+        <v>0.05590622177104939</v>
       </c>
       <c r="G38" t="n">
-        <v>18.58536585365854</v>
+        <v>15.84285714285714</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4173228346456693</v>
+        <v>0.2948602344454463</v>
       </c>
       <c r="I38" t="n">
-        <v>7.601075475321683</v>
+        <v>6.455086950921036</v>
       </c>
       <c r="J38" t="n">
-        <v>18.58536585365854</v>
+        <v>15.84285714285714</v>
       </c>
       <c r="K38" t="n">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="L38" t="n">
-        <v>762</v>
+        <v>1109</v>
       </c>
       <c r="M38" t="n">
-        <v>2.440944881889764</v>
+        <v>2.021641118124436</v>
       </c>
       <c r="N38" t="n">
         <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>7.421259842519685</v>
+        <v>6.068530207394049</v>
       </c>
     </row>
     <row r="39">
@@ -2409,43 +2409,43 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9999999800000005</v>
+        <v>0.7183098490378895</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0617283949855205</v>
+        <v>0.06233538185923144</v>
       </c>
       <c r="G39" t="n">
-        <v>19.75609756097561</v>
+        <v>21.09259259259259</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3691358024691358</v>
+        <v>0.2642669007901668</v>
       </c>
       <c r="I39" t="n">
-        <v>8.050093345377899</v>
+        <v>8.542743797353102</v>
       </c>
       <c r="J39" t="n">
-        <v>19.75609756097561</v>
+        <v>21.09259259259259</v>
       </c>
       <c r="K39" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L39" t="n">
-        <v>810</v>
+        <v>1139</v>
       </c>
       <c r="M39" t="n">
-        <v>2.412345679012346</v>
+        <v>2.013169446883231</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>7.437037037037037</v>
+        <v>6.142230026338893</v>
       </c>
     </row>
     <row r="40">
@@ -2460,43 +2460,43 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9999999756097567</v>
+        <v>0.6857142759183675</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03764921943282899</v>
+        <v>0.04484304929862713</v>
       </c>
       <c r="G40" t="n">
-        <v>17.56451612903226</v>
+        <v>11.47794117647059</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3048668503213958</v>
+        <v>0.210762331838565</v>
       </c>
       <c r="I40" t="n">
-        <v>7.147753191741463</v>
+        <v>4.675481403323661</v>
       </c>
       <c r="J40" t="n">
-        <v>17.56451612903226</v>
+        <v>11.47794117647059</v>
       </c>
       <c r="K40" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L40" t="n">
-        <v>1089</v>
+        <v>1561</v>
       </c>
       <c r="M40" t="n">
-        <v>2.243342516069789</v>
+        <v>1.875080076873799</v>
       </c>
       <c r="N40" t="n">
         <v>30</v>
       </c>
       <c r="O40" t="n">
-        <v>7.269054178145087</v>
+        <v>6.147982062780269</v>
       </c>
     </row>
     <row r="41">
@@ -2511,43 +2511,43 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.9999999500000024</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02362204718209436</v>
+        <v>0.0359066426644405</v>
       </c>
       <c r="G41" t="n">
-        <v>16.56521739130435</v>
+        <v>10.71153846153846</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3018372703412073</v>
+        <v>0.2046678635547576</v>
       </c>
       <c r="I41" t="n">
-        <v>6.746821864658222</v>
+        <v>4.366482530037287</v>
       </c>
       <c r="J41" t="n">
-        <v>16.56521739130435</v>
+        <v>10.71153846153846</v>
       </c>
       <c r="K41" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L41" t="n">
-        <v>381</v>
+        <v>557</v>
       </c>
       <c r="M41" t="n">
-        <v>2.26246719160105</v>
+        <v>1.877917414721723</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>7.181102362204724</v>
+        <v>5.964093357271095</v>
       </c>
     </row>
     <row r="42">
@@ -2562,43 +2562,43 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9999999523809546</v>
+        <v>0.5882352768166096</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04374999990885417</v>
+        <v>0.0472222221566358</v>
       </c>
       <c r="G42" t="n">
-        <v>34.28571428571428</v>
+        <v>28.8</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3520833333333334</v>
+        <v>0.2375</v>
       </c>
       <c r="I42" t="n">
-        <v>13.85511904761905</v>
+        <v>11.615</v>
       </c>
       <c r="J42" t="n">
-        <v>34.28571428571428</v>
+        <v>28.8</v>
       </c>
       <c r="K42" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L42" t="n">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="M42" t="n">
-        <v>2.333333333333333</v>
+        <v>1.904166666666667</v>
       </c>
       <c r="N42" t="n">
         <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>7.2875</v>
+        <v>5.868055555555555</v>
       </c>
     </row>
     <row r="43">
@@ -2613,43 +2613,43 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9999999500000024</v>
+        <v>0.7857142576530622</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06349206329050139</v>
+        <v>0.06060606047487866</v>
       </c>
       <c r="G43" t="n">
-        <v>19.6875</v>
+        <v>20.08695652173913</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2698412698412698</v>
+        <v>0.2034632034632035</v>
       </c>
       <c r="I43" t="n">
-        <v>7.982936507936508</v>
+        <v>8.116167890080934</v>
       </c>
       <c r="J43" t="n">
-        <v>19.6875</v>
+        <v>20.08695652173913</v>
       </c>
       <c r="K43" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L43" t="n">
-        <v>315</v>
+        <v>462</v>
       </c>
       <c r="M43" t="n">
-        <v>2.088888888888889</v>
+        <v>1.792207792207792</v>
       </c>
       <c r="N43" t="n">
         <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>6.707936507936508</v>
+        <v>5.603896103896104</v>
       </c>
     </row>
     <row r="44">
@@ -2664,43 +2664,43 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9999999333333378</v>
+        <v>0.8999999550000022</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0487012985431776</v>
+        <v>0.04319654418316081</v>
       </c>
       <c r="G44" t="n">
-        <v>19.25</v>
+        <v>12.86111111111111</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3441558441558442</v>
+        <v>0.2311015118790497</v>
       </c>
       <c r="I44" t="n">
-        <v>7.837662337662337</v>
+        <v>5.236885049196065</v>
       </c>
       <c r="J44" t="n">
-        <v>19.25</v>
+        <v>12.86111111111111</v>
       </c>
       <c r="K44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L44" t="n">
-        <v>308</v>
+        <v>463</v>
       </c>
       <c r="M44" t="n">
-        <v>2.412337662337662</v>
+        <v>1.967602591792657</v>
       </c>
       <c r="N44" t="n">
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>8.152597402597403</v>
+        <v>6.598272138228942</v>
       </c>
     </row>
     <row r="45">
@@ -2718,40 +2718,40 @@
         <v>19</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9999999473684238</v>
+        <v>0.5199999792000009</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0618892506127386</v>
+        <v>0.05112474427172854</v>
       </c>
       <c r="G45" t="n">
-        <v>14.61904761904762</v>
+        <v>15.7741935483871</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2703583061889251</v>
+        <v>0.1697341513292434</v>
       </c>
       <c r="I45" t="n">
-        <v>5.955762370094618</v>
+        <v>6.377571079886536</v>
       </c>
       <c r="J45" t="n">
-        <v>14.61904761904762</v>
+        <v>15.7741935483871</v>
       </c>
       <c r="K45" t="n">
         <v>83</v>
       </c>
       <c r="L45" t="n">
-        <v>307</v>
+        <v>489</v>
       </c>
       <c r="M45" t="n">
-        <v>2.127035830618893</v>
+        <v>1.699386503067485</v>
       </c>
       <c r="N45" t="n">
         <v>16</v>
       </c>
       <c r="O45" t="n">
-        <v>6.856677524429967</v>
+        <v>5.376278118609407</v>
       </c>
     </row>
     <row r="46">
@@ -2766,43 +2766,43 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9999999523809546</v>
+        <v>0.567567552227904</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05949008481730854</v>
+        <v>0.06618962421075202</v>
       </c>
       <c r="G46" t="n">
-        <v>14.70833333333333</v>
+        <v>11.40816326530612</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3257790368271954</v>
+        <v>0.223613595706619</v>
       </c>
       <c r="I46" t="n">
-        <v>6.013644948064212</v>
+        <v>4.652710744405097</v>
       </c>
       <c r="J46" t="n">
-        <v>14.70833333333333</v>
+        <v>11.40816326530612</v>
       </c>
       <c r="K46" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L46" t="n">
-        <v>353</v>
+        <v>559</v>
       </c>
       <c r="M46" t="n">
-        <v>2.099150141643059</v>
+        <v>1.745974955277281</v>
       </c>
       <c r="N46" t="n">
         <v>6</v>
       </c>
       <c r="O46" t="n">
-        <v>6.813031161473088</v>
+        <v>5.518783542039356</v>
       </c>
     </row>
     <row r="47">
@@ -2817,43 +2817,43 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9999999687500011</v>
+        <v>0.7352941068339102</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03980099497537189</v>
+        <v>0.05748098050931447</v>
       </c>
       <c r="G47" t="n">
-        <v>15.46153846153846</v>
+        <v>14.7875</v>
       </c>
       <c r="H47" t="n">
-        <v>0.318407960199005</v>
+        <v>0.2163989856297548</v>
       </c>
       <c r="I47" t="n">
-        <v>6.311978568694987</v>
+        <v>6.001559594251902</v>
       </c>
       <c r="J47" t="n">
-        <v>15.46153846153846</v>
+        <v>14.7875</v>
       </c>
       <c r="K47" t="n">
         <v>256</v>
       </c>
       <c r="L47" t="n">
-        <v>804</v>
+        <v>1183</v>
       </c>
       <c r="M47" t="n">
-        <v>2.241293532338308</v>
+        <v>1.8385460693153</v>
       </c>
       <c r="N47" t="n">
         <v>6</v>
       </c>
       <c r="O47" t="n">
-        <v>7.228855721393034</v>
+        <v>5.849535080304311</v>
       </c>
     </row>
     <row r="48">
@@ -2868,43 +2868,43 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9999999333333378</v>
+        <v>0.5333333155555561</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03865979371479435</v>
+        <v>0.06012024036048048</v>
       </c>
       <c r="G48" t="n">
-        <v>38.8</v>
+        <v>24.95</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3221649484536083</v>
+        <v>0.248496993987976</v>
       </c>
       <c r="I48" t="n">
-        <v>15.64886597938144</v>
+        <v>10.07939879759519</v>
       </c>
       <c r="J48" t="n">
-        <v>38.8</v>
+        <v>24.95</v>
       </c>
       <c r="K48" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L48" t="n">
-        <v>388</v>
+        <v>499</v>
       </c>
       <c r="M48" t="n">
-        <v>2.231958762886598</v>
+        <v>1.953907815631263</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>7.231958762886598</v>
+        <v>6.298597194388778</v>
       </c>
     </row>
     <row r="49">
@@ -2919,43 +2919,43 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9999999444444475</v>
+        <v>0.5428571273469392</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03501945518478705</v>
+        <v>0.05162241880291678</v>
       </c>
       <c r="G49" t="n">
-        <v>85.66666666666667</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3268482490272374</v>
+        <v>0.2418879056047198</v>
       </c>
       <c r="I49" t="n">
-        <v>34.39740596627757</v>
+        <v>15.16342182890855</v>
       </c>
       <c r="J49" t="n">
-        <v>85.66666666666667</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="K49" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L49" t="n">
-        <v>514</v>
+        <v>678</v>
       </c>
       <c r="M49" t="n">
-        <v>2.297665369649805</v>
+        <v>1.969026548672566</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>7.647859922178989</v>
+        <v>6.489675516224189</v>
       </c>
     </row>
     <row r="50">
@@ -2970,43 +2970,43 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>0.999999956521741</v>
+        <v>0.4146341362284357</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07718120779469394</v>
+        <v>0.09172259487310382</v>
       </c>
       <c r="G50" t="n">
-        <v>33.11111111111111</v>
+        <v>27.9375</v>
       </c>
       <c r="H50" t="n">
-        <v>0.348993288590604</v>
+        <v>0.2371364653243848</v>
       </c>
       <c r="I50" t="n">
-        <v>13.38404175988069</v>
+        <v>11.26985458612975</v>
       </c>
       <c r="J50" t="n">
-        <v>33.11111111111111</v>
+        <v>27.9375</v>
       </c>
       <c r="K50" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L50" t="n">
-        <v>298</v>
+        <v>447</v>
       </c>
       <c r="M50" t="n">
-        <v>2.352348993288591</v>
+        <v>1.926174496644295</v>
       </c>
       <c r="N50" t="n">
         <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>7.540268456375839</v>
+        <v>6.073825503355705</v>
       </c>
     </row>
     <row r="51">
@@ -3021,43 +3021,43 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9999999333333378</v>
+        <v>0.6153845917159773</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04918032770760548</v>
+        <v>0.06483790507521719</v>
       </c>
       <c r="G51" t="n">
-        <v>43.57142857142857</v>
+        <v>28.64285714285714</v>
       </c>
       <c r="H51" t="n">
-        <v>0.340983606557377</v>
+        <v>0.2543640897755611</v>
       </c>
       <c r="I51" t="n">
-        <v>17.56496487119438</v>
+        <v>11.55888849305308</v>
       </c>
       <c r="J51" t="n">
-        <v>43.57142857142857</v>
+        <v>28.64285714285714</v>
       </c>
       <c r="K51" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L51" t="n">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="M51" t="n">
-        <v>2.232786885245902</v>
+        <v>1.927680798004987</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>7.088524590163934</v>
+        <v>6.104738154613466</v>
       </c>
     </row>
     <row r="52">
@@ -3072,43 +3072,43 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.6666666444444451</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03155818534209431</v>
+        <v>0.03911342889294207</v>
       </c>
       <c r="G52" t="n">
-        <v>18.77777777777778</v>
+        <v>19.175</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2998027613412229</v>
+        <v>0.2046936114732725</v>
       </c>
       <c r="I52" t="n">
-        <v>7.6310322156476</v>
+        <v>7.751877444589309</v>
       </c>
       <c r="J52" t="n">
-        <v>18.77777777777778</v>
+        <v>19.175</v>
       </c>
       <c r="K52" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L52" t="n">
-        <v>507</v>
+        <v>767</v>
       </c>
       <c r="M52" t="n">
-        <v>2.159763313609468</v>
+        <v>1.799217731421121</v>
       </c>
       <c r="N52" t="n">
         <v>29</v>
       </c>
       <c r="O52" t="n">
-        <v>7.023668639053255</v>
+        <v>5.745762711864407</v>
       </c>
     </row>
     <row r="53">
@@ -3123,43 +3123,43 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9999999473684238</v>
+        <v>0.6571428383673475</v>
       </c>
       <c r="F53" t="n">
-        <v>0.04470588224775086</v>
+        <v>0.05401234559565996</v>
       </c>
       <c r="G53" t="n">
-        <v>23.61111111111111</v>
+        <v>23.14285714285714</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2847058823529412</v>
+        <v>0.1929012345679012</v>
       </c>
       <c r="I53" t="n">
-        <v>9.558326797385622</v>
+        <v>9.334303350970018</v>
       </c>
       <c r="J53" t="n">
-        <v>23.61111111111111</v>
+        <v>23.14285714285714</v>
       </c>
       <c r="K53" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L53" t="n">
-        <v>425</v>
+        <v>648</v>
       </c>
       <c r="M53" t="n">
-        <v>2.082352941176471</v>
+        <v>1.748456790123457</v>
       </c>
       <c r="N53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O53" t="n">
-        <v>6.569411764705882</v>
+        <v>5.385802469135802</v>
       </c>
     </row>
     <row r="54">
@@ -3174,43 +3174,43 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9999999444444475</v>
+        <v>0.266666657777778</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03964757700518155</v>
+        <v>0.04573170724736021</v>
       </c>
       <c r="G54" t="n">
-        <v>17.46153846153846</v>
+        <v>18.74285714285714</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2444933920704846</v>
+        <v>0.1798780487804878</v>
       </c>
       <c r="I54" t="n">
-        <v>7.082412741443578</v>
+        <v>7.569094076655053</v>
       </c>
       <c r="J54" t="n">
-        <v>17.46153846153846</v>
+        <v>18.74285714285714</v>
       </c>
       <c r="K54" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L54" t="n">
-        <v>454</v>
+        <v>656</v>
       </c>
       <c r="M54" t="n">
-        <v>2.019823788546256</v>
+        <v>1.730182926829268</v>
       </c>
       <c r="N54" t="n">
         <v>25</v>
       </c>
       <c r="O54" t="n">
-        <v>6.341409691629956</v>
+        <v>5.271341463414634</v>
       </c>
     </row>
     <row r="55">
@@ -3225,43 +3225,43 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.4999999750000012</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02710843365328785</v>
+        <v>0.03952569162149073</v>
       </c>
       <c r="G55" t="n">
-        <v>15.09090909090909</v>
+        <v>14.88235294117647</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3975903614457831</v>
+        <v>0.233201581027668</v>
       </c>
       <c r="I55" t="n">
-        <v>6.19539978094195</v>
+        <v>6.046221808881656</v>
       </c>
       <c r="J55" t="n">
-        <v>15.09090909090909</v>
+        <v>14.88235294117647</v>
       </c>
       <c r="K55" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L55" t="n">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="M55" t="n">
-        <v>2.319277108433735</v>
+        <v>1.828063241106719</v>
       </c>
       <c r="N55" t="n">
         <v>6</v>
       </c>
       <c r="O55" t="n">
-        <v>7.496987951807229</v>
+        <v>5.877470355731226</v>
       </c>
     </row>
     <row r="56">
@@ -3276,43 +3276,43 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9999999230769291</v>
+        <v>0.8095237709750585</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03714285703673469</v>
+        <v>0.04093567243482325</v>
       </c>
       <c r="G56" t="n">
-        <v>29.16666666666667</v>
+        <v>27</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3228571428571428</v>
+        <v>0.2144249512670565</v>
       </c>
       <c r="I56" t="n">
-        <v>11.79580952380952</v>
+        <v>10.88576998050682</v>
       </c>
       <c r="J56" t="n">
-        <v>29.16666666666667</v>
+        <v>27</v>
       </c>
       <c r="K56" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L56" t="n">
-        <v>350</v>
+        <v>513</v>
       </c>
       <c r="M56" t="n">
-        <v>2.151428571428571</v>
+        <v>1.793372319688109</v>
       </c>
       <c r="N56" t="n">
         <v>4</v>
       </c>
       <c r="O56" t="n">
-        <v>6.96</v>
+        <v>5.69785575048733</v>
       </c>
     </row>
     <row r="57">
@@ -3327,43 +3327,43 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.5555555349794246</v>
       </c>
       <c r="F57" t="n">
-        <v>0.06694560641445353</v>
+        <v>0.08385093141661201</v>
       </c>
       <c r="G57" t="n">
-        <v>23.9</v>
+        <v>32.2</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3096234309623431</v>
+        <v>0.2732919254658385</v>
       </c>
       <c r="I57" t="n">
-        <v>9.683849372384937</v>
+        <v>12.98931677018634</v>
       </c>
       <c r="J57" t="n">
-        <v>23.9</v>
+        <v>32.2</v>
       </c>
       <c r="K57" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L57" t="n">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="M57" t="n">
-        <v>2.280334728033473</v>
+        <v>2.046583850931677</v>
       </c>
       <c r="N57" t="n">
         <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>7.138075313807532</v>
+        <v>6.295031055900621</v>
       </c>
     </row>
     <row r="58">
@@ -3378,43 +3378,43 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>0.999999958333335</v>
+        <v>0.7619047437641728</v>
       </c>
       <c r="F58" t="n">
-        <v>0.06382978706428248</v>
+        <v>0.07118644055731112</v>
       </c>
       <c r="G58" t="n">
-        <v>18.8</v>
+        <v>21.07142857142857</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2712765957446808</v>
+        <v>0.1728813559322034</v>
       </c>
       <c r="I58" t="n">
-        <v>7.628510638297873</v>
+        <v>8.497723970944312</v>
       </c>
       <c r="J58" t="n">
-        <v>18.8</v>
+        <v>21.07142857142857</v>
       </c>
       <c r="K58" t="n">
         <v>102</v>
       </c>
       <c r="L58" t="n">
-        <v>376</v>
+        <v>590</v>
       </c>
       <c r="M58" t="n">
-        <v>2.082446808510638</v>
+        <v>1.716949152542373</v>
       </c>
       <c r="N58" t="n">
         <v>12</v>
       </c>
       <c r="O58" t="n">
-        <v>6.837765957446808</v>
+        <v>5.469491525423729</v>
       </c>
     </row>
     <row r="59">
@@ -3429,43 +3429,43 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9999999333333378</v>
+        <v>0.5862068763376939</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04731861183811163</v>
+        <v>0.06263498906558318</v>
       </c>
       <c r="G59" t="n">
-        <v>19.8125</v>
+        <v>19.29166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>0.305993690851735</v>
+        <v>0.205183585313175</v>
       </c>
       <c r="I59" t="n">
-        <v>8.047397476340695</v>
+        <v>7.798740100791938</v>
       </c>
       <c r="J59" t="n">
-        <v>19.8125</v>
+        <v>19.29166666666667</v>
       </c>
       <c r="K59" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L59" t="n">
-        <v>317</v>
+        <v>463</v>
       </c>
       <c r="M59" t="n">
-        <v>2.195583596214511</v>
+        <v>1.816414686825054</v>
       </c>
       <c r="N59" t="n">
         <v>5</v>
       </c>
       <c r="O59" t="n">
-        <v>7.082018927444795</v>
+        <v>5.777537796976242</v>
       </c>
     </row>
     <row r="60">
@@ -3480,43 +3480,43 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.4545454338842984</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05660377331790673</v>
+        <v>0.07638888862364969</v>
       </c>
       <c r="G60" t="n">
-        <v>35.33333333333334</v>
+        <v>20.57142857142857</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3584905660377358</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="I60" t="n">
-        <v>14.27672955974843</v>
+        <v>8.332738095238097</v>
       </c>
       <c r="J60" t="n">
-        <v>35.33333333333334</v>
+        <v>20.57142857142857</v>
       </c>
       <c r="K60" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L60" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="M60" t="n">
-        <v>2.485849056603774</v>
+        <v>2.069444444444445</v>
       </c>
       <c r="N60" t="n">
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>7.90566037735849</v>
+        <v>6.545138888888889</v>
       </c>
     </row>
     <row r="61">
@@ -3531,43 +3531,43 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.7647058373702448</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05357142825255103</v>
+        <v>0.07488986751149838</v>
       </c>
       <c r="G61" t="n">
-        <v>33.6</v>
+        <v>20.63636363636364</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3392857142857143</v>
+        <v>0.2951541850220264</v>
       </c>
       <c r="I61" t="n">
-        <v>13.57571428571429</v>
+        <v>8.372607128554266</v>
       </c>
       <c r="J61" t="n">
-        <v>33.6</v>
+        <v>20.63636363636364</v>
       </c>
       <c r="K61" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="L61" t="n">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="M61" t="n">
-        <v>2.327380952380953</v>
+        <v>2.110132158590309</v>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>7.434523809523809</v>
+        <v>6.581497797356828</v>
       </c>
     </row>
     <row r="62">
@@ -3582,43 +3582,43 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9999999090909174</v>
+        <v>0.3043478128544429</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05288461513036243</v>
+        <v>0.08333333303140097</v>
       </c>
       <c r="G62" t="n">
-        <v>34.66666666666666</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3605769230769231</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="I62" t="n">
-        <v>14.01089743589743</v>
+        <v>7.998757763975156</v>
       </c>
       <c r="J62" t="n">
-        <v>34.66666666666666</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="K62" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L62" t="n">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="M62" t="n">
-        <v>2.408653846153846</v>
+        <v>2.054347826086957</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>7.634615384615385</v>
+        <v>6.496376811594203</v>
       </c>
     </row>
     <row r="63">
@@ -3633,43 +3633,43 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9999999230769291</v>
+        <v>0.6521738846880919</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06132075442773229</v>
+        <v>0.08098591520779608</v>
       </c>
       <c r="G63" t="n">
-        <v>30.28571428571428</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3632075471698113</v>
+        <v>0.2605633802816901</v>
       </c>
       <c r="I63" t="n">
-        <v>12.25956873315364</v>
+        <v>9.570892018779345</v>
       </c>
       <c r="J63" t="n">
-        <v>30.28571428571428</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="K63" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L63" t="n">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="M63" t="n">
-        <v>2.349056603773585</v>
+        <v>2.035211267605634</v>
       </c>
       <c r="N63" t="n">
         <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>7.476415094339623</v>
+        <v>6.485915492957746</v>
       </c>
     </row>
     <row r="64">
@@ -3684,43 +3684,43 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9999999230769291</v>
+        <v>0.8749999453125034</v>
       </c>
       <c r="F64" t="n">
-        <v>0.06989247274251359</v>
+        <v>0.07239818971765526</v>
       </c>
       <c r="G64" t="n">
-        <v>31</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3709677419354839</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="I64" t="n">
-        <v>12.54838709677419</v>
+        <v>8.154010695187166</v>
       </c>
       <c r="J64" t="n">
-        <v>31</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="K64" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L64" t="n">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="M64" t="n">
-        <v>2.521505376344086</v>
+        <v>2.176470588235294</v>
       </c>
       <c r="N64" t="n">
         <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>8.005376344086022</v>
+        <v>6.846153846153846</v>
       </c>
     </row>
     <row r="65">
@@ -3735,43 +3735,43 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>13</v>
+      </c>
+      <c r="D65" t="n">
         <v>12</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
       <c r="E65" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.03999999840000006</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05405405381056733</v>
+        <v>0.08250825055277805</v>
       </c>
       <c r="G65" t="n">
-        <v>18.5</v>
+        <v>17.82352941176471</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="I65" t="n">
-        <v>7.551351351351352</v>
+        <v>7.252184041933607</v>
       </c>
       <c r="J65" t="n">
-        <v>18.5</v>
+        <v>17.82352941176471</v>
       </c>
       <c r="K65" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L65" t="n">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="M65" t="n">
-        <v>2.441441441441441</v>
+        <v>2.155115511551155</v>
       </c>
       <c r="N65" t="n">
         <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>7.806306306306307</v>
+        <v>6.653465346534653</v>
       </c>
     </row>
     <row r="66">
@@ -3786,43 +3786,43 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9999999411764739</v>
+        <v>0.7058823321799315</v>
       </c>
       <c r="F66" t="n">
-        <v>0.05466237924545859</v>
+        <v>0.0714285712785114</v>
       </c>
       <c r="G66" t="n">
-        <v>22.21428571428572</v>
+        <v>17.62962962962963</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2990353697749196</v>
+        <v>0.2163865546218487</v>
       </c>
       <c r="I66" t="n">
-        <v>9.005328433624255</v>
+        <v>7.138406473700591</v>
       </c>
       <c r="J66" t="n">
-        <v>22.21428571428572</v>
+        <v>17.62962962962963</v>
       </c>
       <c r="K66" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L66" t="n">
-        <v>311</v>
+        <v>476</v>
       </c>
       <c r="M66" t="n">
-        <v>2.19935691318328</v>
+        <v>1.82563025210084</v>
       </c>
       <c r="N66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O66" t="n">
-        <v>7.347266881028939</v>
+        <v>5.840336134453781</v>
       </c>
     </row>
     <row r="67">
@@ -3837,43 +3837,43 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9999999545454565</v>
+        <v>0.6999999825000005</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0626780624994927</v>
+        <v>0.07633587771691626</v>
       </c>
       <c r="G67" t="n">
-        <v>31.90909090909091</v>
+        <v>18.71428571428572</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2290076335877863</v>
       </c>
       <c r="I67" t="n">
-        <v>12.8969696969697</v>
+        <v>7.577317339149402</v>
       </c>
       <c r="J67" t="n">
-        <v>31.90909090909091</v>
+        <v>18.71428571428572</v>
       </c>
       <c r="K67" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L67" t="n">
-        <v>351</v>
+        <v>524</v>
       </c>
       <c r="M67" t="n">
-        <v>2.307692307692307</v>
+        <v>1.896946564885496</v>
       </c>
       <c r="N67" t="n">
         <v>11</v>
       </c>
       <c r="O67" t="n">
-        <v>7.575498575498576</v>
+        <v>6.110687022900763</v>
       </c>
     </row>
     <row r="68">
@@ -3888,43 +3888,43 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.6470588044982705</v>
       </c>
       <c r="F68" t="n">
-        <v>0.03061224481986672</v>
+        <v>0.06170598899871872</v>
       </c>
       <c r="G68" t="n">
-        <v>30.15384615384615</v>
+        <v>22.95833333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3035714285714285</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I68" t="n">
-        <v>12.18296703296703</v>
+        <v>9.267543859649122</v>
       </c>
       <c r="J68" t="n">
-        <v>30.15384615384615</v>
+        <v>22.95833333333333</v>
       </c>
       <c r="K68" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L68" t="n">
-        <v>392</v>
+        <v>551</v>
       </c>
       <c r="M68" t="n">
-        <v>2.219387755102041</v>
+        <v>1.858439201451906</v>
       </c>
       <c r="N68" t="n">
         <v>11</v>
       </c>
       <c r="O68" t="n">
-        <v>6.948979591836735</v>
+        <v>5.684210526315789</v>
       </c>
     </row>
     <row r="69">
@@ -3939,43 +3939,43 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9999999677419364</v>
+        <v>0.438596483533395</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07788944704047877</v>
+        <v>0.09421487587733078</v>
       </c>
       <c r="G69" t="n">
-        <v>24.875</v>
+        <v>20.86206896551724</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2864321608040201</v>
+        <v>0.1768595041322314</v>
       </c>
       <c r="I69" t="n">
-        <v>10.06457286432161</v>
+        <v>8.41557138785979</v>
       </c>
       <c r="J69" t="n">
-        <v>24.875</v>
+        <v>20.86206896551724</v>
       </c>
       <c r="K69" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L69" t="n">
-        <v>398</v>
+        <v>605</v>
       </c>
       <c r="M69" t="n">
-        <v>2.21608040201005</v>
+        <v>1.781818181818182</v>
       </c>
       <c r="N69" t="n">
         <v>11</v>
       </c>
       <c r="O69" t="n">
-        <v>7.080402010050252</v>
+        <v>5.520661157024794</v>
       </c>
     </row>
     <row r="70">
@@ -3990,43 +3990,43 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9999999285714337</v>
+        <v>0.8095237709750585</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04057971002730519</v>
+        <v>0.04516129022545959</v>
       </c>
       <c r="G70" t="n">
-        <v>21.5625</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="I70" t="n">
-        <v>8.746739130434783</v>
+        <v>8.951766513056837</v>
       </c>
       <c r="J70" t="n">
-        <v>21.5625</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="K70" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L70" t="n">
-        <v>345</v>
+        <v>465</v>
       </c>
       <c r="M70" t="n">
-        <v>2.188405797101449</v>
+        <v>1.901075268817204</v>
       </c>
       <c r="N70" t="n">
         <v>13</v>
       </c>
       <c r="O70" t="n">
-        <v>7.165217391304348</v>
+        <v>6.16989247311828</v>
       </c>
     </row>
     <row r="71">
@@ -4041,43 +4041,43 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9999999230769291</v>
+        <v>0.9999999500000024</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04318936862727785</v>
+        <v>0.04854368920256386</v>
       </c>
       <c r="G71" t="n">
-        <v>37.625</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3122923588039867</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="I71" t="n">
-        <v>15.17491694352159</v>
+        <v>9.252642934196333</v>
       </c>
       <c r="J71" t="n">
-        <v>37.625</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="K71" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="M71" t="n">
-        <v>2.149501661129568</v>
+        <v>1.87621359223301</v>
       </c>
       <c r="N71" t="n">
         <v>5</v>
       </c>
       <c r="O71" t="n">
-        <v>7.3156146179402</v>
+        <v>6.296116504854369</v>
       </c>
     </row>
     <row r="72">
@@ -4092,43 +4092,43 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9999999615384629</v>
+        <v>0.7407407270233199</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04094488182528365</v>
+        <v>0.06006674075632176</v>
       </c>
       <c r="G72" t="n">
-        <v>22.67857142857143</v>
+        <v>19.97777777777778</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3716535433070866</v>
+        <v>0.2602892102335929</v>
       </c>
       <c r="I72" t="n">
-        <v>9.220089988751406</v>
+        <v>8.09522679520455</v>
       </c>
       <c r="J72" t="n">
-        <v>22.67857142857143</v>
+        <v>19.97777777777778</v>
       </c>
       <c r="K72" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L72" t="n">
-        <v>635</v>
+        <v>899</v>
       </c>
       <c r="M72" t="n">
-        <v>2.385826771653544</v>
+        <v>1.981090100111235</v>
       </c>
       <c r="N72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O72" t="n">
-        <v>7.499212598425196</v>
+        <v>6.167964404894327</v>
       </c>
     </row>
     <row r="73">
@@ -4143,43 +4143,43 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9999999230769291</v>
+        <v>0.5999999800000007</v>
       </c>
       <c r="F73" t="n">
-        <v>0.03703703693151841</v>
+        <v>0.05545286496219434</v>
       </c>
       <c r="G73" t="n">
-        <v>23.4</v>
+        <v>30.05555555555556</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2763532763532763</v>
+        <v>0.1940850277264325</v>
       </c>
       <c r="I73" t="n">
-        <v>9.470541310541311</v>
+        <v>12.0998562333128</v>
       </c>
       <c r="J73" t="n">
-        <v>23.4</v>
+        <v>30.05555555555556</v>
       </c>
       <c r="K73" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L73" t="n">
-        <v>351</v>
+        <v>541</v>
       </c>
       <c r="M73" t="n">
-        <v>2.125356125356126</v>
+        <v>1.783733826247689</v>
       </c>
       <c r="N73" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O73" t="n">
-        <v>6.655270655270655</v>
+        <v>5.528650646950092</v>
       </c>
     </row>
     <row r="74">
@@ -4194,43 +4194,43 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9999999333333378</v>
+        <v>0.999999958333335</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04777070048480669</v>
+        <v>0.05309734501527136</v>
       </c>
       <c r="G74" t="n">
-        <v>18.47058823529412</v>
+        <v>22.6</v>
       </c>
       <c r="H74" t="n">
-        <v>0.356687898089172</v>
+        <v>0.2389380530973451</v>
       </c>
       <c r="I74" t="n">
-        <v>7.530910453353316</v>
+        <v>9.135575221238939</v>
       </c>
       <c r="J74" t="n">
-        <v>18.47058823529412</v>
+        <v>22.6</v>
       </c>
       <c r="K74" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L74" t="n">
-        <v>314</v>
+        <v>452</v>
       </c>
       <c r="M74" t="n">
-        <v>2.353503184713376</v>
+        <v>1.913716814159292</v>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>7.385350318471337</v>
+        <v>5.904867256637168</v>
       </c>
     </row>
     <row r="75">
@@ -4245,43 +4245,43 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9999998750000157</v>
+        <v>0.6470587854671302</v>
       </c>
       <c r="F75" t="n">
-        <v>0.03587443930101148</v>
+        <v>0.05329153588309864</v>
       </c>
       <c r="G75" t="n">
-        <v>55.75</v>
+        <v>26.58333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2690582959641256</v>
+        <v>0.2006269592476489</v>
       </c>
       <c r="I75" t="n">
-        <v>22.40762331838565</v>
+        <v>10.71358411703239</v>
       </c>
       <c r="J75" t="n">
-        <v>55.75</v>
+        <v>26.58333333333333</v>
       </c>
       <c r="K75" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L75" t="n">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="M75" t="n">
-        <v>2.080717488789237</v>
+        <v>1.830721003134796</v>
       </c>
       <c r="N75" t="n">
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>6.448430493273543</v>
+        <v>5.636363636363637</v>
       </c>
     </row>
     <row r="76">
@@ -4296,43 +4296,43 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9999999333333378</v>
+        <v>0.8620689357907263</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04573170717764723</v>
+        <v>0.05502846289368413</v>
       </c>
       <c r="G76" t="n">
-        <v>32.8</v>
+        <v>26.35</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3140243902439024</v>
+        <v>0.1973434535104364</v>
       </c>
       <c r="I76" t="n">
-        <v>13.24560975609756</v>
+        <v>10.61893738140418</v>
       </c>
       <c r="J76" t="n">
-        <v>32.8</v>
+        <v>26.35</v>
       </c>
       <c r="K76" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L76" t="n">
-        <v>328</v>
+        <v>527</v>
       </c>
       <c r="M76" t="n">
-        <v>2.182926829268293</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="N76" t="n">
         <v>5</v>
       </c>
       <c r="O76" t="n">
-        <v>6.996951219512195</v>
+        <v>5.436432637571158</v>
       </c>
     </row>
     <row r="77">
@@ -4347,43 +4347,43 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.5384615177514801</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04678362559419993</v>
+        <v>0.05394190860178028</v>
       </c>
       <c r="G77" t="n">
-        <v>28.5</v>
+        <v>24.1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3011695906432749</v>
+        <v>0.1908713692946058</v>
       </c>
       <c r="I77" t="n">
-        <v>11.52046783625731</v>
+        <v>9.716348547717843</v>
       </c>
       <c r="J77" t="n">
-        <v>28.5</v>
+        <v>24.1</v>
       </c>
       <c r="K77" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L77" t="n">
-        <v>342</v>
+        <v>482</v>
       </c>
       <c r="M77" t="n">
-        <v>2.16374269005848</v>
+        <v>1.79045643153527</v>
       </c>
       <c r="N77" t="n">
         <v>6</v>
       </c>
       <c r="O77" t="n">
-        <v>6.982456140350878</v>
+        <v>5.670124481327801</v>
       </c>
     </row>
     <row r="78">
@@ -4398,43 +4398,43 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.5652173667296797</v>
       </c>
       <c r="F78" t="n">
-        <v>0.03821656038784535</v>
+        <v>0.05450236953909391</v>
       </c>
       <c r="G78" t="n">
-        <v>44.85714285714285</v>
+        <v>28.13333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2707006369426752</v>
+        <v>0.1990521327014218</v>
       </c>
       <c r="I78" t="n">
-        <v>18.05113739763421</v>
+        <v>11.3329541864139</v>
       </c>
       <c r="J78" t="n">
-        <v>44.85714285714285</v>
+        <v>28.13333333333333</v>
       </c>
       <c r="K78" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L78" t="n">
-        <v>314</v>
+        <v>422</v>
       </c>
       <c r="M78" t="n">
-        <v>2.089171974522293</v>
+        <v>1.798578199052133</v>
       </c>
       <c r="N78" t="n">
         <v>8</v>
       </c>
       <c r="O78" t="n">
-        <v>6.955414012738854</v>
+        <v>5.860189573459715</v>
       </c>
     </row>
     <row r="79">
@@ -4449,43 +4449,43 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.05882352768166096</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04494382005639019</v>
+        <v>0.08900523536909624</v>
       </c>
       <c r="G79" t="n">
-        <v>38.14285714285715</v>
+        <v>25.46666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3857677902621723</v>
+        <v>0.2801047120418848</v>
       </c>
       <c r="I79" t="n">
-        <v>15.41144997324773</v>
+        <v>10.29870855148342</v>
       </c>
       <c r="J79" t="n">
-        <v>38.14285714285715</v>
+        <v>25.46666666666667</v>
       </c>
       <c r="K79" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L79" t="n">
-        <v>267</v>
+        <v>382</v>
       </c>
       <c r="M79" t="n">
-        <v>2.430711610486891</v>
+        <v>2.044502617801047</v>
       </c>
       <c r="N79" t="n">
         <v>8</v>
       </c>
       <c r="O79" t="n">
-        <v>7.411985018726591</v>
+        <v>6.154450261780105</v>
       </c>
     </row>
     <row r="80">
@@ -4500,43 +4500,43 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.1999999942857145</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02083333327132936</v>
+        <v>0.07383966229147751</v>
       </c>
       <c r="G80" t="n">
-        <v>28</v>
+        <v>20.60869565217391</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="I80" t="n">
-        <v>11.30833333333333</v>
+        <v>8.319427627958174</v>
       </c>
       <c r="J80" t="n">
-        <v>28</v>
+        <v>20.60869565217391</v>
       </c>
       <c r="K80" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L80" t="n">
-        <v>336</v>
+        <v>474</v>
       </c>
       <c r="M80" t="n">
-        <v>2.071428571428572</v>
+        <v>1.782700421940928</v>
       </c>
       <c r="N80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O80" t="n">
-        <v>6.720238095238095</v>
+        <v>5.588607594936708</v>
       </c>
     </row>
     <row r="81">
@@ -4551,43 +4551,43 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.6666666296296316</v>
       </c>
       <c r="F81" t="n">
-        <v>0.02195121945865556</v>
+        <v>0.0302013422312058</v>
       </c>
       <c r="G81" t="n">
-        <v>68.33333333333333</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3219512195121951</v>
+        <v>0.2130872483221476</v>
       </c>
       <c r="I81" t="n">
-        <v>27.46211382113821</v>
+        <v>10.01856823266219</v>
       </c>
       <c r="J81" t="n">
-        <v>68.33333333333333</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="K81" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L81" t="n">
-        <v>410</v>
+        <v>596</v>
       </c>
       <c r="M81" t="n">
-        <v>2.214634146341464</v>
+        <v>1.850671140939597</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>7.126829268292683</v>
+        <v>5.860738255033557</v>
       </c>
     </row>
     <row r="82">
@@ -4602,43 +4602,43 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>0.99999990000001</v>
+        <v>0.7037036776406045</v>
       </c>
       <c r="F82" t="n">
-        <v>0.03086419743560433</v>
+        <v>0.04972375681450505</v>
       </c>
       <c r="G82" t="n">
-        <v>19.05882352941176</v>
+        <v>23.60869565217391</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.1749539594843462</v>
       </c>
       <c r="I82" t="n">
-        <v>7.749455337690631</v>
+        <v>9.513459844663304</v>
       </c>
       <c r="J82" t="n">
-        <v>19.05882352941176</v>
+        <v>23.60869565217391</v>
       </c>
       <c r="K82" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L82" t="n">
-        <v>324</v>
+        <v>543</v>
       </c>
       <c r="M82" t="n">
-        <v>2.364197530864197</v>
+        <v>1.790055248618785</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>7.552469135802469</v>
+        <v>5.593001841620626</v>
       </c>
     </row>
     <row r="83">
@@ -4653,43 +4653,43 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9999999333333378</v>
+        <v>0.8095237709750585</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07246376776587551</v>
+        <v>0.0658307207967689</v>
       </c>
       <c r="G83" t="n">
-        <v>51.75</v>
+        <v>39.875</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3961352657004831</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I83" t="n">
-        <v>20.85845410628019</v>
+        <v>16.05909090909091</v>
       </c>
       <c r="J83" t="n">
-        <v>51.75</v>
+        <v>39.875</v>
       </c>
       <c r="K83" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L83" t="n">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="M83" t="n">
-        <v>2.483091787439613</v>
+        <v>2.018808777429467</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>7.961352657004831</v>
+        <v>6.363636363636363</v>
       </c>
     </row>
     <row r="84">
@@ -4704,43 +4704,43 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9999999333333378</v>
+        <v>0.4999999821428577</v>
       </c>
       <c r="F84" t="n">
-        <v>0.05338078272818227</v>
+        <v>0.07035175861720663</v>
       </c>
       <c r="G84" t="n">
-        <v>56.2</v>
+        <v>18.09090909090909</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3345195729537366</v>
+        <v>0.2311557788944724</v>
       </c>
       <c r="I84" t="n">
-        <v>22.6138078291815</v>
+        <v>7.328825947921425</v>
       </c>
       <c r="J84" t="n">
-        <v>56.2</v>
+        <v>18.09090909090909</v>
       </c>
       <c r="K84" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L84" t="n">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="M84" t="n">
-        <v>2.306049822064057</v>
+        <v>1.942211055276382</v>
       </c>
       <c r="N84" t="n">
         <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>7.494661921708185</v>
+        <v>6.203517587939698</v>
       </c>
     </row>
     <row r="85">
@@ -4755,43 +4755,43 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9999999444444475</v>
+        <v>0.5999999828571434</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0599999998</v>
+        <v>0.08951406626722745</v>
       </c>
       <c r="G85" t="n">
-        <v>75</v>
+        <v>27.92857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0.26</v>
+        <v>0.2250639386189258</v>
       </c>
       <c r="I85" t="n">
-        <v>30.104</v>
+        <v>11.26145414687614</v>
       </c>
       <c r="J85" t="n">
-        <v>75</v>
+        <v>27.92857142857143</v>
       </c>
       <c r="K85" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L85" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="M85" t="n">
-        <v>2.13</v>
+        <v>1.941176470588235</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>7.013333333333334</v>
+        <v>6.207161125319693</v>
       </c>
     </row>
     <row r="86">
@@ -4806,43 +4806,43 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.6470587854671302</v>
       </c>
       <c r="F86" t="n">
-        <v>0.02868852447258801</v>
+        <v>0.05246913564052736</v>
       </c>
       <c r="G86" t="n">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="H86" t="n">
-        <v>0.319672131147541</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="I86" t="n">
-        <v>48.92786885245902</v>
+        <v>10.8962962962963</v>
       </c>
       <c r="J86" t="n">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="K86" t="n">
         <v>78</v>
       </c>
       <c r="L86" t="n">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="M86" t="n">
-        <v>2.360655737704918</v>
+        <v>2.018518518518519</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>7.405737704918033</v>
+        <v>6.351851851851852</v>
       </c>
     </row>
     <row r="87">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9999999230769291</v>
+        <v>0.9999999523809546</v>
       </c>
       <c r="F87" t="n">
-        <v>0.05990783382530952</v>
+        <v>0.06382978704003105</v>
       </c>
       <c r="G87" t="n">
-        <v>72.33333333333333</v>
+        <v>47</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3179723502304148</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="I87" t="n">
-        <v>29.0605222734255</v>
+        <v>18.88510638297872</v>
       </c>
       <c r="J87" t="n">
-        <v>72.33333333333333</v>
+        <v>47</v>
       </c>
       <c r="K87" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L87" t="n">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="M87" t="n">
-        <v>2.248847926267281</v>
+        <v>1.844984802431611</v>
       </c>
       <c r="N87" t="n">
         <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>7.142857142857143</v>
+        <v>5.683890577507599</v>
       </c>
     </row>
     <row r="88">
@@ -4908,43 +4908,43 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.2173912948960307</v>
       </c>
       <c r="F88" t="n">
-        <v>0.02447552438994572</v>
+        <v>0.05623471868891267</v>
       </c>
       <c r="G88" t="n">
-        <v>20.42857142857143</v>
+        <v>17.04166666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3251748251748252</v>
+        <v>0.2224938875305623</v>
       </c>
       <c r="I88" t="n">
-        <v>8.301498501498502</v>
+        <v>6.905664221678892</v>
       </c>
       <c r="J88" t="n">
-        <v>20.42857142857143</v>
+        <v>17.04166666666667</v>
       </c>
       <c r="K88" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L88" t="n">
-        <v>286</v>
+        <v>409</v>
       </c>
       <c r="M88" t="n">
-        <v>2.367132867132867</v>
+        <v>1.963325183374083</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>7.608391608391608</v>
+        <v>6.249388753056235</v>
       </c>
     </row>
     <row r="89">
@@ -4959,43 +4959,43 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.7647058373702448</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03468208082461827</v>
+        <v>0.03434343427405367</v>
       </c>
       <c r="G89" t="n">
-        <v>21.625</v>
+        <v>14.55882352941176</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3323699421965318</v>
+        <v>0.2141414141414141</v>
       </c>
       <c r="I89" t="n">
-        <v>8.782947976878614</v>
+        <v>5.909185977421272</v>
       </c>
       <c r="J89" t="n">
-        <v>21.625</v>
+        <v>14.55882352941176</v>
       </c>
       <c r="K89" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L89" t="n">
-        <v>346</v>
+        <v>495</v>
       </c>
       <c r="M89" t="n">
-        <v>2.419075144508671</v>
+        <v>1.951515151515151</v>
       </c>
       <c r="N89" t="n">
         <v>5</v>
       </c>
       <c r="O89" t="n">
-        <v>7.696531791907514</v>
+        <v>6.167676767676768</v>
       </c>
     </row>
     <row r="90">
@@ -5010,43 +5010,43 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.6296296063100145</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01739130429741651</v>
+        <v>0.05273437489700317</v>
       </c>
       <c r="G90" t="n">
-        <v>20.29411764705882</v>
+        <v>14.62857142857143</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3101449275362319</v>
+        <v>0.212890625</v>
       </c>
       <c r="I90" t="n">
-        <v>8.241705029838021</v>
+        <v>5.936584821428571</v>
       </c>
       <c r="J90" t="n">
-        <v>20.29411764705882</v>
+        <v>14.62857142857143</v>
       </c>
       <c r="K90" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L90" t="n">
-        <v>345</v>
+        <v>512</v>
       </c>
       <c r="M90" t="n">
-        <v>2.257971014492754</v>
+        <v>1.85546875</v>
       </c>
       <c r="N90" t="n">
         <v>2</v>
       </c>
       <c r="O90" t="n">
-        <v>7.15072463768116</v>
+        <v>5.82421875</v>
       </c>
     </row>
     <row r="91">
@@ -5061,43 +5061,43 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.7777777345679036</v>
       </c>
       <c r="F91" t="n">
-        <v>0.04633204615315813</v>
+        <v>0.04749340356861899</v>
       </c>
       <c r="G91" t="n">
-        <v>51.8</v>
+        <v>54.14285714285715</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2586872586872587</v>
+        <v>0.1767810026385224</v>
       </c>
       <c r="I91" t="n">
-        <v>20.8234749034749</v>
+        <v>21.72785525819827</v>
       </c>
       <c r="J91" t="n">
-        <v>51.8</v>
+        <v>54.14285714285715</v>
       </c>
       <c r="K91" t="n">
         <v>67</v>
       </c>
       <c r="L91" t="n">
-        <v>259</v>
+        <v>379</v>
       </c>
       <c r="M91" t="n">
-        <v>2.131274131274131</v>
+        <v>1.781002638522427</v>
       </c>
       <c r="N91" t="n">
         <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>6.671814671814672</v>
+        <v>5.488126649076517</v>
       </c>
     </row>
     <row r="92">
@@ -5112,43 +5112,43 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.2999999850000007</v>
       </c>
       <c r="F92" t="n">
-        <v>0.03260869553402647</v>
+        <v>0.04878048768590125</v>
       </c>
       <c r="G92" t="n">
-        <v>46</v>
+        <v>58.57142857142857</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2826086956521739</v>
+        <v>0.2048780487804878</v>
       </c>
       <c r="I92" t="n">
-        <v>18.51304347826087</v>
+        <v>23.51052264808362</v>
       </c>
       <c r="J92" t="n">
-        <v>46</v>
+        <v>58.57142857142857</v>
       </c>
       <c r="K92" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L92" t="n">
-        <v>276</v>
+        <v>410</v>
       </c>
       <c r="M92" t="n">
-        <v>2.199275362318841</v>
+        <v>1.829268292682927</v>
       </c>
       <c r="N92" t="n">
         <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>7.282608695652174</v>
+        <v>5.860975609756098</v>
       </c>
     </row>
     <row r="93">
@@ -5163,43 +5163,43 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9999999714285723</v>
+        <v>0.6610169379488655</v>
       </c>
       <c r="F93" t="n">
-        <v>0.05021520796238851</v>
+        <v>0.05373406188184511</v>
       </c>
       <c r="G93" t="n">
-        <v>23.23333333333333</v>
+        <v>19.60714285714286</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.214936247723133</v>
       </c>
       <c r="I93" t="n">
-        <v>9.429918699186992</v>
+        <v>7.928831641946397</v>
       </c>
       <c r="J93" t="n">
-        <v>23.23333333333333</v>
+        <v>19.60714285714286</v>
       </c>
       <c r="K93" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L93" t="n">
-        <v>697</v>
+        <v>1098</v>
       </c>
       <c r="M93" t="n">
-        <v>2.232424677187948</v>
+        <v>1.797814207650273</v>
       </c>
       <c r="N93" t="n">
         <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>7.124820659971306</v>
+        <v>5.676684881602914</v>
       </c>
     </row>
     <row r="94">
@@ -5214,43 +5214,43 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9999999736842113</v>
+        <v>0.8620689506539837</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05307262562420025</v>
+        <v>0.05074365699847449</v>
       </c>
       <c r="G94" t="n">
-        <v>23.86666666666667</v>
+        <v>22.41176470588235</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3226256983240223</v>
+        <v>0.2073490813648294</v>
       </c>
       <c r="I94" t="n">
-        <v>9.675716945996276</v>
+        <v>9.047645514898873</v>
       </c>
       <c r="J94" t="n">
-        <v>23.86666666666667</v>
+        <v>22.41176470588235</v>
       </c>
       <c r="K94" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L94" t="n">
-        <v>716</v>
+        <v>1143</v>
       </c>
       <c r="M94" t="n">
-        <v>2.206703910614525</v>
+        <v>1.782152230971129</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>7.041899441340782</v>
+        <v>5.582677165354331</v>
       </c>
     </row>
     <row r="95">
@@ -5265,43 +5265,43 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9999999090909174</v>
+        <v>0.4117646816609011</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04489795900041649</v>
+        <v>0.05105105089774459</v>
       </c>
       <c r="G95" t="n">
-        <v>61.25</v>
+        <v>17.52631578947368</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3918367346938775</v>
+        <v>0.2822822822822823</v>
       </c>
       <c r="I95" t="n">
-        <v>24.65673469387755</v>
+        <v>7.123439228702387</v>
       </c>
       <c r="J95" t="n">
-        <v>61.25</v>
+        <v>17.52631578947368</v>
       </c>
       <c r="K95" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L95" t="n">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="M95" t="n">
-        <v>2.485714285714286</v>
+        <v>2.084084084084084</v>
       </c>
       <c r="N95" t="n">
         <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>7.795918367346939</v>
+        <v>6.543543543543543</v>
       </c>
     </row>
     <row r="96">
@@ -5316,43 +5316,43 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9999999473684238</v>
+        <v>0.7333333088888897</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05919003096825536</v>
+        <v>0.06211180111364016</v>
       </c>
       <c r="G96" t="n">
-        <v>29.18181818181818</v>
+        <v>21.95454545454545</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3052959501557632</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I96" t="n">
-        <v>11.79484565278958</v>
+        <v>8.858008658008657</v>
       </c>
       <c r="J96" t="n">
-        <v>29.18181818181818</v>
+        <v>21.95454545454545</v>
       </c>
       <c r="K96" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L96" t="n">
-        <v>321</v>
+        <v>483</v>
       </c>
       <c r="M96" t="n">
-        <v>2.227414330218068</v>
+        <v>1.830227743271222</v>
       </c>
       <c r="N96" t="n">
         <v>2</v>
       </c>
       <c r="O96" t="n">
-        <v>7.024922118380062</v>
+        <v>5.60248447204969</v>
       </c>
     </row>
     <row r="97">
@@ -5367,43 +5367,43 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9999999285714337</v>
+        <v>0.7647058373702448</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06422018319165054</v>
+        <v>0.0527950308919409</v>
       </c>
       <c r="G97" t="n">
-        <v>36.33333333333334</v>
+        <v>18.94117647058824</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3577981651376147</v>
+        <v>0.2639751552795031</v>
       </c>
       <c r="I97" t="n">
-        <v>14.67645259938838</v>
+        <v>7.682060650347096</v>
       </c>
       <c r="J97" t="n">
-        <v>36.33333333333334</v>
+        <v>18.94117647058824</v>
       </c>
       <c r="K97" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L97" t="n">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="M97" t="n">
-        <v>2.362385321100918</v>
+        <v>2.018633540372671</v>
       </c>
       <c r="N97" t="n">
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>7.63302752293578</v>
+        <v>6.425465838509317</v>
       </c>
     </row>
     <row r="98">
@@ -5418,43 +5418,43 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9999998750000157</v>
+        <v>0.5833333090277788</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02730375417302473</v>
+        <v>0.05298013233337719</v>
       </c>
       <c r="G98" t="n">
-        <v>41.85714285714285</v>
+        <v>18.875</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2969283276450512</v>
+        <v>0.1942604856512141</v>
       </c>
       <c r="I98" t="n">
-        <v>16.86162847391516</v>
+        <v>7.627704194260486</v>
       </c>
       <c r="J98" t="n">
-        <v>41.85714285714285</v>
+        <v>18.875</v>
       </c>
       <c r="K98" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L98" t="n">
-        <v>293</v>
+        <v>453</v>
       </c>
       <c r="M98" t="n">
-        <v>2.25938566552901</v>
+        <v>1.847682119205298</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>7.395904436860068</v>
+        <v>5.854304635761589</v>
       </c>
     </row>
     <row r="99">
@@ -5469,43 +5469,43 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.8461537810650938</v>
       </c>
       <c r="F99" t="n">
-        <v>0.03765690360813011</v>
+        <v>0.04075235096942837</v>
       </c>
       <c r="G99" t="n">
-        <v>29.875</v>
+        <v>22.78571428571428</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3430962343096234</v>
+        <v>0.2445141065830721</v>
       </c>
       <c r="I99" t="n">
-        <v>12.08723849372385</v>
+        <v>9.212091356918943</v>
       </c>
       <c r="J99" t="n">
-        <v>29.875</v>
+        <v>22.78571428571428</v>
       </c>
       <c r="K99" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L99" t="n">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="M99" t="n">
-        <v>2.384937238493724</v>
+        <v>1.993730407523511</v>
       </c>
       <c r="N99" t="n">
         <v>4</v>
       </c>
       <c r="O99" t="n">
-        <v>7.594142259414226</v>
+        <v>6.181818181818182</v>
       </c>
     </row>
     <row r="100">
@@ -5520,43 +5520,43 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9999999090909174</v>
+        <v>0.6363636074380178</v>
       </c>
       <c r="F100" t="n">
-        <v>0.02917771875549677</v>
+        <v>0.03859649116035703</v>
       </c>
       <c r="G100" t="n">
-        <v>53.85714285714285</v>
+        <v>27.14285714285714</v>
       </c>
       <c r="H100" t="n">
-        <v>0.376657824933687</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="I100" t="n">
-        <v>21.69352027283062</v>
+        <v>10.95819548872181</v>
       </c>
       <c r="J100" t="n">
-        <v>53.85714285714285</v>
+        <v>27.14285714285714</v>
       </c>
       <c r="K100" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L100" t="n">
-        <v>377</v>
+        <v>570</v>
       </c>
       <c r="M100" t="n">
-        <v>2.509283819628647</v>
+        <v>2.019298245614035</v>
       </c>
       <c r="N100" t="n">
         <v>4</v>
       </c>
       <c r="O100" t="n">
-        <v>7.769230769230769</v>
+        <v>6.222807017543859</v>
       </c>
     </row>
     <row r="101">
@@ -5571,43 +5571,43 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>0.99999990000001</v>
+        <v>0.7499999531250029</v>
       </c>
       <c r="F101" t="n">
-        <v>0.04149377576143662</v>
+        <v>0.04938271589696692</v>
       </c>
       <c r="G101" t="n">
-        <v>48.2</v>
+        <v>17.05263157894737</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3485477178423236</v>
+        <v>0.25</v>
       </c>
       <c r="I101" t="n">
-        <v>19.41941908713693</v>
+        <v>6.921052631578949</v>
       </c>
       <c r="J101" t="n">
-        <v>48.2</v>
+        <v>17.05263157894737</v>
       </c>
       <c r="K101" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L101" t="n">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="M101" t="n">
-        <v>2.298755186721992</v>
+        <v>1.962962962962963</v>
       </c>
       <c r="N101" t="n">
         <v>4</v>
       </c>
       <c r="O101" t="n">
-        <v>7.232365145228216</v>
+        <v>6.104938271604938</v>
       </c>
     </row>
     <row r="102">
@@ -5622,43 +5622,43 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.5238094988662143</v>
       </c>
       <c r="F102" t="n">
-        <v>0.03947368408067867</v>
+        <v>0.04625550650604514</v>
       </c>
       <c r="G102" t="n">
-        <v>33.77777777777778</v>
+        <v>20.63636363636364</v>
       </c>
       <c r="H102" t="n">
-        <v>0.2960526315789473</v>
+        <v>0.2136563876651982</v>
       </c>
       <c r="I102" t="n">
-        <v>13.62953216374269</v>
+        <v>8.340008009611536</v>
       </c>
       <c r="J102" t="n">
-        <v>33.77777777777778</v>
+        <v>20.63636363636364</v>
       </c>
       <c r="K102" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L102" t="n">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="M102" t="n">
-        <v>2.161184210526316</v>
+        <v>1.806167400881057</v>
       </c>
       <c r="N102" t="n">
         <v>4</v>
       </c>
       <c r="O102" t="n">
-        <v>6.75</v>
+        <v>5.513215859030837</v>
       </c>
     </row>
     <row r="103">
@@ -5673,43 +5673,43 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.5999999600000027</v>
       </c>
       <c r="F103" t="n">
-        <v>0.03543307072664145</v>
+        <v>0.04373177829815808</v>
       </c>
       <c r="G103" t="n">
-        <v>63.5</v>
+        <v>26.38461538461538</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3228346456692913</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="I103" t="n">
-        <v>25.52913385826772</v>
+        <v>10.65180533751962</v>
       </c>
       <c r="J103" t="n">
-        <v>63.5</v>
+        <v>26.38461538461538</v>
       </c>
       <c r="K103" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L103" t="n">
-        <v>254</v>
+        <v>343</v>
       </c>
       <c r="M103" t="n">
-        <v>2.322834645669291</v>
+        <v>1.991253644314869</v>
       </c>
       <c r="N103" t="n">
         <v>4</v>
       </c>
       <c r="O103" t="n">
-        <v>7.515748031496063</v>
+        <v>6.320699708454811</v>
       </c>
     </row>
     <row r="104">
@@ -5724,43 +5724,43 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.3913043308128552</v>
       </c>
       <c r="F104" t="n">
-        <v>0.03084832896954157</v>
+        <v>0.04406130259758371</v>
       </c>
       <c r="G104" t="n">
-        <v>48.625</v>
+        <v>24.85714285714286</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3264781491002571</v>
+        <v>0.2567049808429119</v>
       </c>
       <c r="I104" t="n">
-        <v>19.5805912596401</v>
+        <v>10.04553913519431</v>
       </c>
       <c r="J104" t="n">
-        <v>48.625</v>
+        <v>24.85714285714286</v>
       </c>
       <c r="K104" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L104" t="n">
-        <v>389</v>
+        <v>522</v>
       </c>
       <c r="M104" t="n">
-        <v>2.262210796915167</v>
+        <v>1.996168582375479</v>
       </c>
       <c r="N104" t="n">
         <v>7</v>
       </c>
       <c r="O104" t="n">
-        <v>6.897172236503856</v>
+        <v>6.072796934865901</v>
       </c>
     </row>
     <row r="105">
@@ -5775,43 +5775,43 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.99999990000001</v>
+        <v>0.9999999166666736</v>
       </c>
       <c r="F105" t="n">
-        <v>0.04166666649305556</v>
+        <v>0.03592814360500556</v>
       </c>
       <c r="G105" t="n">
-        <v>48</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3208333333333334</v>
+        <v>0.2425149700598802</v>
       </c>
       <c r="I105" t="n">
-        <v>19.32833333333333</v>
+        <v>11.23033932135728</v>
       </c>
       <c r="J105" t="n">
-        <v>48</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="K105" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L105" t="n">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="M105" t="n">
-        <v>2.25</v>
+        <v>1.937125748502994</v>
       </c>
       <c r="N105" t="n">
         <v>2</v>
       </c>
       <c r="O105" t="n">
-        <v>7.208333333333333</v>
+        <v>6.068862275449102</v>
       </c>
     </row>
     <row r="106">
@@ -5826,43 +5826,43 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9999999814814818</v>
+        <v>0.8108107998539081</v>
       </c>
       <c r="F106" t="n">
-        <v>0.08011869424314734</v>
+        <v>0.07305034543627804</v>
       </c>
       <c r="G106" t="n">
-        <v>17.73684210526316</v>
+        <v>18.08928571428572</v>
       </c>
       <c r="H106" t="n">
-        <v>0.2922848664688427</v>
+        <v>0.1885488647581441</v>
       </c>
       <c r="I106" t="n">
-        <v>7.211650788692801</v>
+        <v>7.311133831617544</v>
       </c>
       <c r="J106" t="n">
-        <v>17.73684210526316</v>
+        <v>18.08928571428572</v>
       </c>
       <c r="K106" t="n">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L106" t="n">
-        <v>674</v>
+        <v>1013</v>
       </c>
       <c r="M106" t="n">
-        <v>2.094955489614243</v>
+        <v>1.729516288252715</v>
       </c>
       <c r="N106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>6.821958456973293</v>
+        <v>5.550839091806515</v>
       </c>
     </row>
     <row r="107">
@@ -5877,43 +5877,43 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9999999615384629</v>
+        <v>0.9591836538942112</v>
       </c>
       <c r="F107" t="n">
-        <v>0.05555555543684711</v>
+        <v>0.06990014255363745</v>
       </c>
       <c r="G107" t="n">
-        <v>20.34782608695652</v>
+        <v>20.61764705882353</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1987179487179487</v>
+        <v>0.1326676176890157</v>
       </c>
       <c r="I107" t="n">
-        <v>8.218617614269789</v>
+        <v>8.300125870605019</v>
       </c>
       <c r="J107" t="n">
-        <v>20.34782608695652</v>
+        <v>20.61764705882353</v>
       </c>
       <c r="K107" t="n">
         <v>93</v>
       </c>
       <c r="L107" t="n">
-        <v>468</v>
+        <v>701</v>
       </c>
       <c r="M107" t="n">
-        <v>1.916666666666667</v>
+        <v>1.620542082738944</v>
       </c>
       <c r="N107" t="n">
         <v>19</v>
       </c>
       <c r="O107" t="n">
-        <v>6.177350427350428</v>
+        <v>5.074179743223966</v>
       </c>
     </row>
     <row r="108">
@@ -5928,43 +5928,43 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.2222222098765439</v>
       </c>
       <c r="F108" t="n">
-        <v>0.02112676048899028</v>
+        <v>0.04580152660101393</v>
       </c>
       <c r="G108" t="n">
-        <v>25.81818181818182</v>
+        <v>20.68421052631579</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3063380281690141</v>
+        <v>0.2468193384223919</v>
       </c>
       <c r="I108" t="n">
-        <v>10.44980793854033</v>
+        <v>8.372411945895273</v>
       </c>
       <c r="J108" t="n">
-        <v>25.81818181818182</v>
+        <v>20.68421052631579</v>
       </c>
       <c r="K108" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L108" t="n">
-        <v>284</v>
+        <v>393</v>
       </c>
       <c r="M108" t="n">
-        <v>2.154929577464789</v>
+        <v>1.893129770992366</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>6.848591549295775</v>
+        <v>5.852417302798982</v>
       </c>
     </row>
     <row r="109">
@@ -5979,43 +5979,43 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9999999090909174</v>
+        <v>0.9047618616780065</v>
       </c>
       <c r="F109" t="n">
-        <v>0.04365079347757621</v>
+        <v>0.06363636344352618</v>
       </c>
       <c r="G109" t="n">
-        <v>42</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>0.3253968253968254</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="I109" t="n">
-        <v>16.93015873015873</v>
+        <v>14.7830303030303</v>
       </c>
       <c r="J109" t="n">
-        <v>42</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="K109" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="L109" t="n">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="M109" t="n">
-        <v>2.317460317460318</v>
+        <v>2.112121212121212</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>7.242063492063492</v>
+        <v>6.448484848484848</v>
       </c>
     </row>
     <row r="110">
@@ -6030,43 +6030,43 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9999999444444475</v>
+        <v>0.64285711989796</v>
       </c>
       <c r="F110" t="n">
-        <v>0.06666666641975309</v>
+        <v>0.06845965753432846</v>
       </c>
       <c r="G110" t="n">
-        <v>24.54545454545455</v>
+        <v>18.59090909090909</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2102689486552567</v>
       </c>
       <c r="I110" t="n">
-        <v>9.936700336700339</v>
+        <v>7.52047121582574</v>
       </c>
       <c r="J110" t="n">
-        <v>24.54545454545455</v>
+        <v>18.59090909090909</v>
       </c>
       <c r="K110" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L110" t="n">
-        <v>270</v>
+        <v>409</v>
       </c>
       <c r="M110" t="n">
-        <v>2.181481481481482</v>
+        <v>1.828850855745721</v>
       </c>
       <c r="N110" t="n">
         <v>4</v>
       </c>
       <c r="O110" t="n">
-        <v>6.848148148148148</v>
+        <v>5.662591687041565</v>
       </c>
     </row>
     <row r="111">
@@ -6081,43 +6081,43 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9999999285714337</v>
+        <v>0.8124999746093758</v>
       </c>
       <c r="F111" t="n">
-        <v>0.03431372540609381</v>
+        <v>0.05507745257301643</v>
       </c>
       <c r="G111" t="n">
-        <v>58.28571428571428</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2013769363166953</v>
       </c>
       <c r="I111" t="n">
-        <v>23.43193277310925</v>
+        <v>11.14721744119335</v>
       </c>
       <c r="J111" t="n">
-        <v>58.28571428571428</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="K111" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L111" t="n">
-        <v>408</v>
+        <v>581</v>
       </c>
       <c r="M111" t="n">
-        <v>2.151960784313725</v>
+        <v>1.812392426850258</v>
       </c>
       <c r="N111" t="n">
         <v>5</v>
       </c>
       <c r="O111" t="n">
-        <v>6.96813725490196</v>
+        <v>5.771084337349397</v>
       </c>
     </row>
     <row r="112">
@@ -6132,43 +6132,43 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.4999999843750005</v>
       </c>
       <c r="F112" t="n">
-        <v>0.03950617274196007</v>
+        <v>0.05263157886080332</v>
       </c>
       <c r="G112" t="n">
-        <v>50.625</v>
+        <v>27.63636363636364</v>
       </c>
       <c r="H112" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1825657894736842</v>
       </c>
       <c r="I112" t="n">
-        <v>20.35666666666667</v>
+        <v>11.12757177033493</v>
       </c>
       <c r="J112" t="n">
-        <v>50.625</v>
+        <v>27.63636363636364</v>
       </c>
       <c r="K112" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L112" t="n">
-        <v>405</v>
+        <v>608</v>
       </c>
       <c r="M112" t="n">
-        <v>2.14320987654321</v>
+        <v>1.776315789473684</v>
       </c>
       <c r="N112" t="n">
         <v>6</v>
       </c>
       <c r="O112" t="n">
-        <v>7.111111111111111</v>
+        <v>5.731907894736842</v>
       </c>
     </row>
     <row r="113">
@@ -6183,43 +6183,43 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.7499999687500013</v>
       </c>
       <c r="F113" t="n">
-        <v>0.05095541385046046</v>
+        <v>0.05073995760942927</v>
       </c>
       <c r="G113" t="n">
-        <v>22.42857142857143</v>
+        <v>24.89473684210526</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2707006369426752</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I113" t="n">
-        <v>9.079708826205641</v>
+        <v>10.03062200956938</v>
       </c>
       <c r="J113" t="n">
-        <v>22.42857142857143</v>
+        <v>24.89473684210526</v>
       </c>
       <c r="K113" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L113" t="n">
-        <v>314</v>
+        <v>473</v>
       </c>
       <c r="M113" t="n">
-        <v>2.092356687898089</v>
+        <v>1.758985200845666</v>
       </c>
       <c r="N113" t="n">
         <v>5</v>
       </c>
       <c r="O113" t="n">
-        <v>6.605095541401274</v>
+        <v>5.443974630021142</v>
       </c>
     </row>
     <row r="114">
@@ -6234,43 +6234,43 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9999999666666678</v>
+        <v>0.7777777604938276</v>
       </c>
       <c r="F114" t="n">
-        <v>0.06741573018558263</v>
+        <v>0.0662739321557085</v>
       </c>
       <c r="G114" t="n">
-        <v>89</v>
+        <v>28.29166666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>0.2966292134831461</v>
+        <v>0.2002945508100147</v>
       </c>
       <c r="I114" t="n">
-        <v>35.71865168539326</v>
+        <v>11.39678448699067</v>
       </c>
       <c r="J114" t="n">
-        <v>89</v>
+        <v>28.29166666666667</v>
       </c>
       <c r="K114" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L114" t="n">
-        <v>445</v>
+        <v>679</v>
       </c>
       <c r="M114" t="n">
-        <v>2.155056179775281</v>
+        <v>1.810014727540501</v>
       </c>
       <c r="N114" t="n">
         <v>10</v>
       </c>
       <c r="O114" t="n">
-        <v>6.658426966292135</v>
+        <v>5.592047128129602</v>
       </c>
     </row>
     <row r="115">
@@ -6285,43 +6285,43 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.4736841855955691</v>
       </c>
       <c r="F115" t="n">
-        <v>0.03414634129684711</v>
+        <v>0.06643356620128124</v>
       </c>
       <c r="G115" t="n">
-        <v>68.33333333333333</v>
+        <v>15.05263157894737</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3365853658536586</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="I115" t="n">
-        <v>27.4679674796748</v>
+        <v>6.110563121089437</v>
       </c>
       <c r="J115" t="n">
-        <v>68.33333333333333</v>
+        <v>15.05263157894737</v>
       </c>
       <c r="K115" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L115" t="n">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="M115" t="n">
-        <v>2.409756097560976</v>
+        <v>1.975524475524476</v>
       </c>
       <c r="N115" t="n">
         <v>6</v>
       </c>
       <c r="O115" t="n">
-        <v>7.780487804878049</v>
+        <v>6.321678321678322</v>
       </c>
     </row>
     <row r="116">
@@ -6336,43 +6336,43 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D116" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.8260869206049165</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.05693069292838938</v>
+      </c>
+      <c r="G116" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.2945544554455445</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10.21782178217822</v>
+      </c>
+      <c r="J116" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="K116" t="n">
+        <v>119</v>
+      </c>
+      <c r="L116" t="n">
+        <v>404</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2.193069306930693</v>
+      </c>
+      <c r="N116" t="n">
         <v>0</v>
       </c>
-      <c r="E116" t="n">
-        <v>0.9999999166666736</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.04123711326035356</v>
-      </c>
-      <c r="G116" t="n">
-        <v>41.57142857142857</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.4054982817869416</v>
-      </c>
-      <c r="I116" t="n">
-        <v>16.79077074128621</v>
-      </c>
-      <c r="J116" t="n">
-        <v>41.57142857142857</v>
-      </c>
-      <c r="K116" t="n">
-        <v>118</v>
-      </c>
-      <c r="L116" t="n">
-        <v>291</v>
-      </c>
-      <c r="M116" t="n">
-        <v>2.63573883161512</v>
-      </c>
-      <c r="N116" t="n">
-        <v>1</v>
-      </c>
       <c r="O116" t="n">
-        <v>8.168384879725085</v>
+        <v>6.680693069306931</v>
       </c>
     </row>
     <row r="117">
@@ -6387,43 +6387,43 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.3333333240740743</v>
       </c>
       <c r="F117" t="n">
-        <v>0.01372549016916571</v>
+        <v>0.04699738897258827</v>
       </c>
       <c r="G117" t="n">
-        <v>28.33333333333333</v>
+        <v>18.23809523809524</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2686274509803921</v>
+        <v>0.1775456919060052</v>
       </c>
       <c r="I117" t="n">
-        <v>11.44078431372549</v>
+        <v>7.366256372000497</v>
       </c>
       <c r="J117" t="n">
-        <v>28.33333333333333</v>
+        <v>18.23809523809524</v>
       </c>
       <c r="K117" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L117" t="n">
-        <v>510</v>
+        <v>766</v>
       </c>
       <c r="M117" t="n">
-        <v>2.26078431372549</v>
+        <v>1.85378590078329</v>
       </c>
       <c r="N117" t="n">
         <v>8</v>
       </c>
       <c r="O117" t="n">
-        <v>7.309803921568627</v>
+        <v>5.8733681462141</v>
       </c>
     </row>
     <row r="118">
@@ -6438,43 +6438,43 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9999999666666678</v>
+        <v>0.5937499907226564</v>
       </c>
       <c r="F118" t="n">
-        <v>0.03250270852383239</v>
+        <v>0.04881769637771342</v>
       </c>
       <c r="G118" t="n">
-        <v>26.37142857142857</v>
+        <v>19.86363636363636</v>
       </c>
       <c r="H118" t="n">
-        <v>0.2903575297941495</v>
+        <v>0.2059496567505721</v>
       </c>
       <c r="I118" t="n">
-        <v>10.66471444048909</v>
+        <v>8.027834408154774</v>
       </c>
       <c r="J118" t="n">
-        <v>26.37142857142857</v>
+        <v>19.86363636363636</v>
       </c>
       <c r="K118" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L118" t="n">
-        <v>923</v>
+        <v>1311</v>
       </c>
       <c r="M118" t="n">
-        <v>2.256771397616468</v>
+        <v>1.925247902364607</v>
       </c>
       <c r="N118" t="n">
         <v>12</v>
       </c>
       <c r="O118" t="n">
-        <v>7.268689057421452</v>
+        <v>6.054157131960336</v>
       </c>
     </row>
     <row r="119">
@@ -6489,43 +6489,43 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9999999500000024</v>
+        <v>0.7499999765625008</v>
       </c>
       <c r="F119" t="n">
-        <v>0.03546099284492732</v>
+        <v>0.04255319143277501</v>
       </c>
       <c r="G119" t="n">
-        <v>31.33333333333333</v>
+        <v>23.5</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3528368794326241</v>
+        <v>0.2539893617021277</v>
       </c>
       <c r="I119" t="n">
-        <v>12.67446808510638</v>
+        <v>9.501595744680852</v>
       </c>
       <c r="J119" t="n">
-        <v>31.33333333333333</v>
+        <v>23.5</v>
       </c>
       <c r="K119" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L119" t="n">
-        <v>564</v>
+        <v>752</v>
       </c>
       <c r="M119" t="n">
-        <v>2.367021276595745</v>
+        <v>2.025265957446809</v>
       </c>
       <c r="N119" t="n">
         <v>5</v>
       </c>
       <c r="O119" t="n">
-        <v>7.622340425531915</v>
+        <v>6.480053191489362</v>
       </c>
     </row>
     <row r="120">
@@ -6540,43 +6540,43 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9999997500000625</v>
+        <v>0.9999998333333611</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0399999996</v>
+        <v>0.04411764673442907</v>
       </c>
       <c r="G120" t="n">
-        <v>20</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="I120" t="n">
-        <v>8.120000000000001</v>
+        <v>1.616993464052288</v>
       </c>
       <c r="J120" t="n">
-        <v>20</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="K120" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L120" t="n">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="M120" t="n">
-        <v>3.3</v>
+        <v>2.786764705882353</v>
       </c>
       <c r="N120" t="n">
         <v>1</v>
       </c>
       <c r="O120" t="n">
-        <v>11.11</v>
+        <v>9.882352941176471</v>
       </c>
     </row>
     <row r="121">
@@ -6591,43 +6591,43 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.8333332638888947</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0563380279045163</v>
+      </c>
+      <c r="G121" t="n">
+        <v>19.36363636363636</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.2676056338028169</v>
+      </c>
+      <c r="I121" t="n">
+        <v>7.852496798975672</v>
+      </c>
+      <c r="J121" t="n">
+        <v>19.36363636363636</v>
+      </c>
+      <c r="K121" t="n">
+        <v>57</v>
+      </c>
+      <c r="L121" t="n">
+        <v>213</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2.126760563380282</v>
+      </c>
+      <c r="N121" t="n">
         <v>0</v>
       </c>
-      <c r="E121" t="n">
-        <v>0.9999998571428775</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.04142011809810581</v>
-      </c>
-      <c r="G121" t="n">
-        <v>169</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.3668639053254438</v>
-      </c>
-      <c r="I121" t="n">
-        <v>67.74674556213017</v>
-      </c>
-      <c r="J121" t="n">
-        <v>169</v>
-      </c>
-      <c r="K121" t="n">
-        <v>62</v>
-      </c>
-      <c r="L121" t="n">
-        <v>169</v>
-      </c>
-      <c r="M121" t="n">
-        <v>2.497041420118343</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
       <c r="O121" t="n">
-        <v>7.982248520710059</v>
+        <v>6.779342723004695</v>
       </c>
     </row>
     <row r="122">
@@ -6642,43 +6642,43 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.99999990000001</v>
+        <v>0.8823528892733594</v>
       </c>
       <c r="F122" t="n">
-        <v>0.05882352906574394</v>
+        <v>0.07870370333933471</v>
       </c>
       <c r="G122" t="n">
-        <v>56.66666666666666</v>
+        <v>21.6</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3941176470588235</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="I122" t="n">
-        <v>22.8243137254902</v>
+        <v>8.758518518518519</v>
       </c>
       <c r="J122" t="n">
-        <v>56.66666666666666</v>
+        <v>21.6</v>
       </c>
       <c r="K122" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L122" t="n">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="M122" t="n">
-        <v>2.441176470588236</v>
+        <v>2.037037037037037</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>7.8</v>
+        <v>6.467592592592593</v>
       </c>
     </row>
     <row r="123">
@@ -6693,43 +6693,43 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>0.99999990000001</v>
+        <v>0.4166666493055562</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0505050502499745</v>
+        <v>0.09958506182744788</v>
       </c>
       <c r="G123" t="n">
-        <v>49.5</v>
+        <v>24.1</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3282828282828283</v>
+        <v>0.2531120331950207</v>
       </c>
       <c r="I123" t="n">
-        <v>19.93131313131313</v>
+        <v>9.741244813278009</v>
       </c>
       <c r="J123" t="n">
-        <v>49.5</v>
+        <v>24.1</v>
       </c>
       <c r="K123" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L123" t="n">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="M123" t="n">
-        <v>2.237373737373737</v>
+        <v>2.020746887966805</v>
       </c>
       <c r="N123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O123" t="n">
-        <v>7.318181818181818</v>
+        <v>6.49792531120332</v>
       </c>
     </row>
     <row r="124">
@@ -6744,43 +6744,43 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.8666666088888928</v>
       </c>
       <c r="F124" t="n">
-        <v>0.04895104860873393</v>
+        <v>0.07812499959309896</v>
       </c>
       <c r="G124" t="n">
-        <v>71.5</v>
+        <v>12</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3776223776223776</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="I124" t="n">
-        <v>28.75104895104895</v>
+        <v>4.904166666666667</v>
       </c>
       <c r="J124" t="n">
-        <v>71.5</v>
+        <v>12</v>
       </c>
       <c r="K124" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L124" t="n">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="M124" t="n">
-        <v>2.426573426573427</v>
+        <v>2.046875</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>7.692307692307693</v>
+        <v>6.427083333333333</v>
       </c>
     </row>
     <row r="125">
@@ -6795,43 +6795,43 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E125" t="n">
-        <v>0.99999990000001</v>
+        <v>0.2307692130177529</v>
       </c>
       <c r="F125" t="n">
-        <v>0.06493506451340868</v>
+        <v>0.07142857103610675</v>
       </c>
       <c r="G125" t="n">
-        <v>38.5</v>
+        <v>18.2</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.3131868131868132</v>
       </c>
       <c r="I125" t="n">
-        <v>15.55584415584416</v>
+        <v>7.405274725274726</v>
       </c>
       <c r="J125" t="n">
-        <v>38.5</v>
+        <v>18.2</v>
       </c>
       <c r="K125" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L125" t="n">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="M125" t="n">
-        <v>2.454545454545455</v>
+        <v>2.236263736263736</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>7.954545454545454</v>
+        <v>7.241758241758242</v>
       </c>
     </row>
     <row r="126">
@@ -6846,43 +6846,43 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9999999444444475</v>
+        <v>0.6279069621416986</v>
       </c>
       <c r="F126" t="n">
-        <v>0.03742203734423693</v>
+        <v>0.05562742554252597</v>
       </c>
       <c r="G126" t="n">
-        <v>34.35714285714285</v>
+        <v>24.93548387096774</v>
       </c>
       <c r="H126" t="n">
-        <v>0.288981288981289</v>
+        <v>0.1759379042690815</v>
       </c>
       <c r="I126" t="n">
-        <v>13.85844965844966</v>
+        <v>10.04456871009473</v>
       </c>
       <c r="J126" t="n">
-        <v>34.35714285714285</v>
+        <v>24.93548387096774</v>
       </c>
       <c r="K126" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L126" t="n">
-        <v>481</v>
+        <v>773</v>
       </c>
       <c r="M126" t="n">
-        <v>2.124740124740125</v>
+        <v>1.716688227684347</v>
       </c>
       <c r="N126" t="n">
         <v>21</v>
       </c>
       <c r="O126" t="n">
-        <v>6.8004158004158</v>
+        <v>5.349288486416559</v>
       </c>
     </row>
     <row r="127">
@@ -6897,43 +6897,43 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.9999998571428775</v>
       </c>
       <c r="F127" t="n">
-        <v>0.03351955288536563</v>
+        <v>0.02661596948054764</v>
       </c>
       <c r="G127" t="n">
-        <v>35.8</v>
+        <v>15.47058823529412</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3854748603351955</v>
+        <v>0.2737642585551331</v>
       </c>
       <c r="I127" t="n">
-        <v>14.47418994413408</v>
+        <v>6.297740997539701</v>
       </c>
       <c r="J127" t="n">
-        <v>35.8</v>
+        <v>15.47058823529412</v>
       </c>
       <c r="K127" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L127" t="n">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="M127" t="n">
-        <v>2.614525139664805</v>
+        <v>2.125475285171103</v>
       </c>
       <c r="N127" t="n">
         <v>2</v>
       </c>
       <c r="O127" t="n">
-        <v>8.418994413407821</v>
+        <v>6.752851711026616</v>
       </c>
     </row>
     <row r="128">
@@ -6948,43 +6948,43 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.2380952267573701</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01711491438358212</v>
+        <v>0.03317535539782724</v>
       </c>
       <c r="G128" t="n">
-        <v>31.46153846153846</v>
+        <v>25.32</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3374083129584352</v>
+        <v>0.2164296998420221</v>
       </c>
       <c r="I128" t="n">
-        <v>12.71957870979876</v>
+        <v>10.21457187993681</v>
       </c>
       <c r="J128" t="n">
-        <v>31.46153846153846</v>
+        <v>25.32</v>
       </c>
       <c r="K128" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L128" t="n">
-        <v>409</v>
+        <v>633</v>
       </c>
       <c r="M128" t="n">
-        <v>2.288508557457213</v>
+        <v>1.837282780410743</v>
       </c>
       <c r="N128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O128" t="n">
-        <v>6.970660146699267</v>
+        <v>5.484992101105846</v>
       </c>
     </row>
     <row r="129">
@@ -6999,43 +6999,43 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D129" t="n">
+        <v>4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.6923076656804744</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0783132527761649</v>
+      </c>
+      <c r="G129" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="I129" t="n">
+        <v>11.15341365461848</v>
+      </c>
+      <c r="J129" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="K129" t="n">
+        <v>72</v>
+      </c>
+      <c r="L129" t="n">
+        <v>332</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.855421686746988</v>
+      </c>
+      <c r="N129" t="n">
         <v>0</v>
       </c>
-      <c r="E129" t="n">
-        <v>0.9999999285714337</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.05857740561264684</v>
-      </c>
-      <c r="G129" t="n">
-        <v>29.875</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.3263598326359833</v>
-      </c>
-      <c r="I129" t="n">
-        <v>12.08054393305439</v>
-      </c>
-      <c r="J129" t="n">
-        <v>29.875</v>
-      </c>
-      <c r="K129" t="n">
-        <v>78</v>
-      </c>
-      <c r="L129" t="n">
-        <v>239</v>
-      </c>
-      <c r="M129" t="n">
-        <v>2.221757322175732</v>
-      </c>
-      <c r="N129" t="n">
-        <v>1</v>
-      </c>
       <c r="O129" t="n">
-        <v>6.958158995815899</v>
+        <v>5.704819277108434</v>
       </c>
     </row>
     <row r="130">
@@ -7050,43 +7050,43 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9999999473684238</v>
+        <v>0.7857142576530622</v>
       </c>
       <c r="F130" t="n">
-        <v>0.05722891549027435</v>
+        <v>0.05194805185167337</v>
       </c>
       <c r="G130" t="n">
-        <v>22.13333333333333</v>
+        <v>19.96296296296296</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3734939759036144</v>
+        <v>0.2189239332096475</v>
       </c>
       <c r="I130" t="n">
-        <v>9.002730923694779</v>
+        <v>8.072754758469044</v>
       </c>
       <c r="J130" t="n">
-        <v>22.13333333333333</v>
+        <v>19.96296296296296</v>
       </c>
       <c r="K130" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L130" t="n">
-        <v>332</v>
+        <v>539</v>
       </c>
       <c r="M130" t="n">
-        <v>2.445783132530121</v>
+        <v>1.894248608534323</v>
       </c>
       <c r="N130" t="n">
         <v>10</v>
       </c>
       <c r="O130" t="n">
-        <v>7.521084337349397</v>
+        <v>5.727272727272728</v>
       </c>
     </row>
     <row r="131">
@@ -7101,43 +7101,43 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9999999230769291</v>
+        <v>0.6551723912009521</v>
       </c>
       <c r="F131" t="n">
-        <v>0.03651685383000883</v>
+        <v>0.05253623178888364</v>
       </c>
       <c r="G131" t="n">
-        <v>59.33333333333334</v>
+        <v>22.08</v>
       </c>
       <c r="H131" t="n">
-        <v>0.3258426966292135</v>
+        <v>0.2010869565217391</v>
       </c>
       <c r="I131" t="n">
-        <v>23.86367041198502</v>
+        <v>8.912434782608695</v>
       </c>
       <c r="J131" t="n">
-        <v>59.33333333333334</v>
+        <v>22.08</v>
       </c>
       <c r="K131" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L131" t="n">
-        <v>356</v>
+        <v>552</v>
       </c>
       <c r="M131" t="n">
-        <v>2.22191011235955</v>
+        <v>1.786231884057971</v>
       </c>
       <c r="N131" t="n">
         <v>8</v>
       </c>
       <c r="O131" t="n">
-        <v>6.912921348314606</v>
+        <v>5.481884057971015</v>
       </c>
     </row>
     <row r="132">
@@ -7152,43 +7152,43 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.8333332986111125</v>
       </c>
       <c r="F132" t="n">
-        <v>0.03082191770266467</v>
+        <v>0.0558139533585722</v>
       </c>
       <c r="G132" t="n">
-        <v>26.54545454545455</v>
+        <v>18.69565217391304</v>
       </c>
       <c r="H132" t="n">
-        <v>0.3561643835616438</v>
+        <v>0.2418604651162791</v>
       </c>
       <c r="I132" t="n">
-        <v>10.76064757160648</v>
+        <v>7.575005055611729</v>
       </c>
       <c r="J132" t="n">
-        <v>26.54545454545455</v>
+        <v>18.69565217391304</v>
       </c>
       <c r="K132" t="n">
         <v>104</v>
       </c>
       <c r="L132" t="n">
-        <v>292</v>
+        <v>430</v>
       </c>
       <c r="M132" t="n">
-        <v>2.36986301369863</v>
+        <v>1.932558139534884</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>7.503424657534246</v>
+        <v>6.044186046511628</v>
       </c>
     </row>
     <row r="133">
@@ -7203,43 +7203,43 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.4117646816609011</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0243902438174556</v>
+        <v>0.0384615383745214</v>
       </c>
       <c r="G133" t="n">
-        <v>35.875</v>
+        <v>21.04761904761905</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3449477351916376</v>
+        <v>0.2239819004524887</v>
       </c>
       <c r="I133" t="n">
-        <v>14.48797909407666</v>
+        <v>8.508640379228614</v>
       </c>
       <c r="J133" t="n">
-        <v>35.875</v>
+        <v>21.04761904761905</v>
       </c>
       <c r="K133" t="n">
         <v>99</v>
       </c>
       <c r="L133" t="n">
-        <v>287</v>
+        <v>442</v>
       </c>
       <c r="M133" t="n">
-        <v>2.337979094076655</v>
+        <v>1.882352941176471</v>
       </c>
       <c r="N133" t="n">
         <v>7</v>
       </c>
       <c r="O133" t="n">
-        <v>7.588850174216028</v>
+        <v>6.083710407239819</v>
       </c>
     </row>
     <row r="134">
@@ -7254,43 +7254,43 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>0.99999990000001</v>
+        <v>0.8888888395061756</v>
       </c>
       <c r="F134" t="n">
-        <v>0.04201680654614787</v>
+        <v>0.05521472375701005</v>
       </c>
       <c r="G134" t="n">
-        <v>79.33333333333333</v>
+        <v>20.375</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.2607361963190184</v>
       </c>
       <c r="I134" t="n">
-        <v>31.88627450980392</v>
+        <v>8.254294478527608</v>
       </c>
       <c r="J134" t="n">
-        <v>79.33333333333333</v>
+        <v>20.375</v>
       </c>
       <c r="K134" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L134" t="n">
-        <v>238</v>
+        <v>326</v>
       </c>
       <c r="M134" t="n">
-        <v>2.407563025210084</v>
+        <v>2.049079754601227</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>7.243697478991597</v>
+        <v>6.315950920245399</v>
       </c>
     </row>
     <row r="135">
@@ -7305,43 +7305,43 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.6249999609375024</v>
       </c>
       <c r="F135" t="n">
-        <v>0.03688524575047031</v>
+        <v>0.04747774466623814</v>
       </c>
       <c r="G135" t="n">
-        <v>81.33333333333333</v>
+        <v>25.92307692307692</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3360655737704918</v>
+        <v>0.2611275964391692</v>
       </c>
       <c r="I135" t="n">
-        <v>32.66775956284153</v>
+        <v>10.47368180780644</v>
       </c>
       <c r="J135" t="n">
-        <v>81.33333333333333</v>
+        <v>25.92307692307692</v>
       </c>
       <c r="K135" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L135" t="n">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="M135" t="n">
-        <v>2.368852459016393</v>
+        <v>2.071216617210682</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>7.385245901639344</v>
+        <v>6.42433234421365</v>
       </c>
     </row>
     <row r="136">
@@ -7356,43 +7356,43 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9999998750000157</v>
+        <v>0.7333332844444478</v>
       </c>
       <c r="F136" t="n">
-        <v>0.03619909485882763</v>
+        <v>0.05033557030088735</v>
       </c>
       <c r="G136" t="n">
-        <v>55.25</v>
+        <v>22.92307692307692</v>
       </c>
       <c r="H136" t="n">
-        <v>0.4027149321266968</v>
+        <v>0.2818791946308725</v>
       </c>
       <c r="I136" t="n">
-        <v>22.26108597285068</v>
+        <v>9.281982447083118</v>
       </c>
       <c r="J136" t="n">
-        <v>55.25</v>
+        <v>22.92307692307692</v>
       </c>
       <c r="K136" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L136" t="n">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="M136" t="n">
-        <v>2.538461538461538</v>
+        <v>2.110738255033557</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>7.723981900452489</v>
+        <v>6.469798657718121</v>
       </c>
     </row>
     <row r="137">
@@ -7407,43 +7407,43 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>0.99999990000001</v>
+        <v>0.5555555246913597</v>
       </c>
       <c r="F137" t="n">
-        <v>0.04405286324205787</v>
+        <v>0.0594059403980002</v>
       </c>
       <c r="G137" t="n">
-        <v>75.66666666666667</v>
+        <v>27.54545454545455</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3480176211453744</v>
+        <v>0.2541254125412541</v>
       </c>
       <c r="I137" t="n">
-        <v>30.40587371512482</v>
+        <v>11.11983198319832</v>
       </c>
       <c r="J137" t="n">
-        <v>75.66666666666667</v>
+        <v>27.54545454545455</v>
       </c>
       <c r="K137" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L137" t="n">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="M137" t="n">
-        <v>2.387665198237885</v>
+        <v>2.026402640264026</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>7.400881057268722</v>
+        <v>6.247524752475248</v>
       </c>
     </row>
     <row r="138">
@@ -7458,43 +7458,43 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9999998750000157</v>
+        <v>0.9047618616780065</v>
       </c>
       <c r="F138" t="n">
-        <v>0.03539822993186624</v>
+        <v>0.06501547967487467</v>
       </c>
       <c r="G138" t="n">
-        <v>25.11111111111111</v>
+        <v>16.15</v>
       </c>
       <c r="H138" t="n">
-        <v>0.3628318584070797</v>
+        <v>0.2507739938080495</v>
       </c>
       <c r="I138" t="n">
-        <v>10.18957718780728</v>
+        <v>6.56030959752322</v>
       </c>
       <c r="J138" t="n">
-        <v>25.11111111111111</v>
+        <v>16.15</v>
       </c>
       <c r="K138" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L138" t="n">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="M138" t="n">
-        <v>2.464601769911504</v>
+        <v>2.024767801857585</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>7.584070796460177</v>
+        <v>6.120743034055727</v>
       </c>
     </row>
     <row r="139">
@@ -7509,43 +7509,43 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9999998750000157</v>
+        <v>0.7647058373702448</v>
       </c>
       <c r="F139" t="n">
-        <v>0.03278688511152916</v>
+        <v>0.04999999985294118</v>
       </c>
       <c r="G139" t="n">
-        <v>61</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="H139" t="n">
-        <v>0.2991803278688525</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="I139" t="n">
-        <v>24.51967213114754</v>
+        <v>12.45069518716578</v>
       </c>
       <c r="J139" t="n">
-        <v>61</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="K139" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L139" t="n">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="M139" t="n">
-        <v>2.258196721311475</v>
+        <v>1.926470588235294</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>7.057377049180328</v>
+        <v>5.873529411764705</v>
       </c>
     </row>
     <row r="140">
@@ -7560,43 +7560,43 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9999999090909174</v>
+        <v>0.7499999531250029</v>
       </c>
       <c r="F140" t="n">
-        <v>0.043999999824</v>
+        <v>0.04938271589696692</v>
       </c>
       <c r="G140" t="n">
-        <v>62.5</v>
+        <v>23.14285714285714</v>
       </c>
       <c r="H140" t="n">
-        <v>0.38</v>
+        <v>0.2376543209876543</v>
       </c>
       <c r="I140" t="n">
-        <v>25.152</v>
+        <v>9.352204585537919</v>
       </c>
       <c r="J140" t="n">
-        <v>62.5</v>
+        <v>23.14285714285714</v>
       </c>
       <c r="K140" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="L140" t="n">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="M140" t="n">
-        <v>2.428</v>
+        <v>2.012345679012346</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>7.284</v>
+        <v>6.058641975308642</v>
       </c>
     </row>
     <row r="141">
@@ -7611,43 +7611,43 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9999999375000038</v>
+        <v>0.7931034209274682</v>
       </c>
       <c r="F141" t="n">
-        <v>0.04324324312636962</v>
+        <v>0.05631067950230936</v>
       </c>
       <c r="G141" t="n">
-        <v>24.66666666666667</v>
+        <v>23.40909090909091</v>
       </c>
       <c r="H141" t="n">
-        <v>0.3054054054054054</v>
+        <v>0.1883495145631068</v>
       </c>
       <c r="I141" t="n">
-        <v>9.988828828828829</v>
+        <v>9.438976169461608</v>
       </c>
       <c r="J141" t="n">
-        <v>24.66666666666667</v>
+        <v>23.40909090909091</v>
       </c>
       <c r="K141" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="L141" t="n">
-        <v>370</v>
+        <v>515</v>
       </c>
       <c r="M141" t="n">
-        <v>2.091891891891892</v>
+        <v>1.749514563106796</v>
       </c>
       <c r="N141" t="n">
         <v>2</v>
       </c>
       <c r="O141" t="n">
-        <v>6.581081081081081</v>
+        <v>5.448543689320388</v>
       </c>
     </row>
     <row r="142">
@@ -7662,43 +7662,43 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9999999523809546</v>
+        <v>0.5217391190926278</v>
       </c>
       <c r="F142" t="n">
-        <v>0.02945301538646141</v>
+        <v>0.04554455441035193</v>
       </c>
       <c r="G142" t="n">
-        <v>35.65</v>
+        <v>17.41379310344828</v>
       </c>
       <c r="H142" t="n">
-        <v>0.2805049088359046</v>
+        <v>0.1950495049504951</v>
       </c>
       <c r="I142" t="n">
-        <v>14.37220196353436</v>
+        <v>7.04353704335951</v>
       </c>
       <c r="J142" t="n">
-        <v>35.65</v>
+        <v>17.41379310344828</v>
       </c>
       <c r="K142" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L142" t="n">
-        <v>713</v>
+        <v>1010</v>
       </c>
       <c r="M142" t="n">
-        <v>2.145862552594671</v>
+        <v>1.811881188118812</v>
       </c>
       <c r="N142" t="n">
         <v>5</v>
       </c>
       <c r="O142" t="n">
-        <v>6.915848527349229</v>
+        <v>5.779207920792079</v>
       </c>
     </row>
     <row r="143">
@@ -7713,43 +7713,43 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9999999285714337</v>
+        <v>0.3793103317479196</v>
       </c>
       <c r="F143" t="n">
-        <v>0.02922755735025562</v>
+        <v>0.04434250757745794</v>
       </c>
       <c r="G143" t="n">
-        <v>43.54545454545455</v>
+        <v>21.8</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4112734864300626</v>
+        <v>0.2951070336391438</v>
       </c>
       <c r="I143" t="n">
-        <v>17.58269121275384</v>
+        <v>8.838042813455658</v>
       </c>
       <c r="J143" t="n">
-        <v>43.54545454545455</v>
+        <v>21.8</v>
       </c>
       <c r="K143" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L143" t="n">
-        <v>479</v>
+        <v>654</v>
       </c>
       <c r="M143" t="n">
-        <v>2.455114822546973</v>
+        <v>2.070336391437309</v>
       </c>
       <c r="N143" t="n">
         <v>3</v>
       </c>
       <c r="O143" t="n">
-        <v>7.22964509394572</v>
+        <v>6.151376146788991</v>
       </c>
     </row>
     <row r="144">
@@ -7764,43 +7764,43 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9999999444444475</v>
+        <v>0.560975596073766</v>
       </c>
       <c r="F144" t="n">
-        <v>0.02575107292453352</v>
+        <v>0.04154002022133737</v>
       </c>
       <c r="G144" t="n">
-        <v>53.76923076923077</v>
+        <v>21.93333333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>0.3376251788268956</v>
+        <v>0.2462006079027356</v>
       </c>
       <c r="I144" t="n">
-        <v>21.64274237922307</v>
+        <v>8.871813576494429</v>
       </c>
       <c r="J144" t="n">
-        <v>53.76923076923077</v>
+        <v>21.93333333333333</v>
       </c>
       <c r="K144" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L144" t="n">
-        <v>699</v>
+        <v>987</v>
       </c>
       <c r="M144" t="n">
-        <v>2.271816881258941</v>
+        <v>1.932117527862209</v>
       </c>
       <c r="N144" t="n">
         <v>2</v>
       </c>
       <c r="O144" t="n">
-        <v>6.881258941344778</v>
+        <v>5.819655521783181</v>
       </c>
     </row>
     <row r="145">
@@ -7815,43 +7815,43 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9999999642857155</v>
+        <v>0.3650793592844546</v>
       </c>
       <c r="F145" t="n">
-        <v>0.02822580642315947</v>
+        <v>0.04326923073951289</v>
       </c>
       <c r="G145" t="n">
-        <v>30.06060606060606</v>
+        <v>20.8</v>
       </c>
       <c r="H145" t="n">
-        <v>0.2993951612903226</v>
+        <v>0.206043956043956</v>
       </c>
       <c r="I145" t="n">
-        <v>12.14400048875856</v>
+        <v>8.402417582417582</v>
       </c>
       <c r="J145" t="n">
-        <v>30.06060606060606</v>
+        <v>20.8</v>
       </c>
       <c r="K145" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L145" t="n">
-        <v>992</v>
+        <v>1456</v>
       </c>
       <c r="M145" t="n">
-        <v>2.183467741935484</v>
+        <v>1.828296703296703</v>
       </c>
       <c r="N145" t="n">
         <v>6</v>
       </c>
       <c r="O145" t="n">
-        <v>6.700604838709677</v>
+        <v>5.582417582417582</v>
       </c>
     </row>
     <row r="146">
@@ -7866,43 +7866,43 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9999999411764739</v>
+        <v>0.2352941107266438</v>
       </c>
       <c r="F146" t="n">
-        <v>0.05345911932874491</v>
+        <v>0.06967213100477022</v>
       </c>
       <c r="G146" t="n">
-        <v>35.33333333333334</v>
+        <v>19.52</v>
       </c>
       <c r="H146" t="n">
-        <v>0.2515723270440252</v>
+        <v>0.1741803278688525</v>
       </c>
       <c r="I146" t="n">
-        <v>14.23396226415094</v>
+        <v>7.877672131147541</v>
       </c>
       <c r="J146" t="n">
-        <v>35.33333333333334</v>
+        <v>19.52</v>
       </c>
       <c r="K146" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L146" t="n">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="M146" t="n">
-        <v>2.172955974842767</v>
+        <v>1.799180327868853</v>
       </c>
       <c r="N146" t="n">
         <v>13</v>
       </c>
       <c r="O146" t="n">
-        <v>6.820754716981132</v>
+        <v>5.641393442622951</v>
       </c>
     </row>
     <row r="147">
@@ -7917,43 +7917,43 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.99999980000004</v>
+        <v>0.7142856122449125</v>
       </c>
       <c r="F147" t="n">
-        <v>0.02673796777145472</v>
+        <v>0.02966101682347027</v>
       </c>
       <c r="G147" t="n">
-        <v>93.5</v>
+        <v>59</v>
       </c>
       <c r="H147" t="n">
-        <v>0.2459893048128342</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="I147" t="n">
-        <v>37.49839572192514</v>
+        <v>23.69491525423729</v>
       </c>
       <c r="J147" t="n">
-        <v>93.5</v>
+        <v>59</v>
       </c>
       <c r="K147" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L147" t="n">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="M147" t="n">
-        <v>2.294117647058823</v>
+        <v>2.101694915254237</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>6.823529411764706</v>
+        <v>6.228813559322034</v>
       </c>
     </row>
     <row r="148">
@@ -7968,43 +7968,43 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.7142856122449125</v>
       </c>
       <c r="F148" t="n">
-        <v>0.04166666641865079</v>
+        <v>0.03097345119038296</v>
       </c>
       <c r="G148" t="n">
-        <v>42</v>
+        <v>20.54545454545455</v>
       </c>
       <c r="H148" t="n">
-        <v>0.375</v>
+        <v>0.2654867256637168</v>
       </c>
       <c r="I148" t="n">
-        <v>16.95</v>
+        <v>8.324376508447306</v>
       </c>
       <c r="J148" t="n">
-        <v>42</v>
+        <v>20.54545454545455</v>
       </c>
       <c r="K148" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L148" t="n">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="M148" t="n">
-        <v>2.398809523809524</v>
+        <v>1.97787610619469</v>
       </c>
       <c r="N148" t="n">
         <v>1</v>
       </c>
       <c r="O148" t="n">
-        <v>7.398809523809524</v>
+        <v>6.168141592920354</v>
       </c>
     </row>
   </sheetData>
